--- a/自考/00096-外刊经贸知识选读/00096外刊经贸知识选读.xlsx
+++ b/自考/00096-外刊经贸知识选读/00096外刊经贸知识选读.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="8004" windowHeight="9155" tabRatio="915" activeTab="1"/>
+    <workbookView windowWidth="7115" windowHeight="9155" tabRatio="915" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="课程知识框架" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="746">
-  <si>
-    <t>课程知识框架
-看完24页(2017.4月)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="1040">
+  <si>
+    <t>课程知识框架</t>
   </si>
   <si>
     <t>China's Foreign Trade(重点)</t>
@@ -32,7 +31,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -65,7 +64,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -95,7 +94,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -338,6 +337,13 @@
     <t>宣告，宣布 = assert</t>
   </si>
   <si>
+    <t>underpinnings</t>
+  </si>
+  <si>
+    <t>基础
+= bases</t>
+  </si>
+  <si>
     <t>infrastructure</t>
   </si>
   <si>
@@ -373,7 +379,9 @@
     <t>grant</t>
   </si>
   <si>
-    <t>给予，授予 = bestow vt.</t>
+    <t>给予，授予 
+= bestow vt.
+= give</t>
   </si>
   <si>
     <t>an accord</t>
@@ -424,13 +432,17 @@
     <t>be eligible for sth.</t>
   </si>
   <si>
-    <t>符合条件的，合格的 = legal</t>
+    <t>符合条件的，合格的 
+= legal
+= qualified</t>
   </si>
   <si>
     <t>uniform</t>
   </si>
   <si>
-    <t>当名词用时：制服式的，全部相同的 = same</t>
+    <t>当名词用时：制服式的，全部相同的 
+= same
+= combined</t>
   </si>
   <si>
     <t>moribund 
@@ -536,7 +548,8 @@
     <t>spur</t>
   </si>
   <si>
-    <t>vt. 激励 = stimulate</t>
+    <t>vt. 激励 
+= stimulate</t>
   </si>
   <si>
     <t>prospect</t>
@@ -591,7 +604,8 @@
   </si>
   <si>
     <t>动态的，充满活力的
-= active</t>
+= active
+= energetic</t>
   </si>
   <si>
     <t>sluggish</t>
@@ -728,7 +742,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -738,7 +752,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -969,7 +983,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -980,7 +994,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1021,15 +1035,18 @@
     <t>attract</t>
   </si>
   <si>
-    <t>吸引
-encouragement 鼓励</t>
+    <t>vt.吸引(attraction 吸引力)
+= encouragement n.鼓励
+= alllure n.吸引力
+= appeal n.吸引力 v.呼吁，有吸引力</t>
   </si>
   <si>
     <t>boom</t>
   </si>
   <si>
     <t>繁荣
-= prosperity</t>
+= prosperity
+= flourish</t>
   </si>
   <si>
     <t>fragile</t>
@@ -1069,7 +1086,8 @@
 = yield to</t>
   </si>
   <si>
-    <t>clout /klaʊt/</t>
+    <t>clout 
+/klaʊt/</t>
   </si>
   <si>
     <t>n.破布；敲打；影响力
@@ -1138,7 +1156,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1148,7 +1166,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1168,7 +1186,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -1178,14 +1196,15 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>；；把（牲畜）关在厩内（养肥）
-= postpone 推迟，延缓</t>
+= postpone 推迟，延缓
+= suspend 暂停，中止；延缓，推迟</t>
     </r>
   </si>
   <si>
@@ -1219,7 +1238,8 @@
   </si>
   <si>
     <t>失去平衡：指事物或情况不再正常、稳定或和谐。
-kilter n.平衡 = balance</t>
+kilter n.平衡 = balance
+= equal</t>
   </si>
   <si>
     <t>deregulation</t>
@@ -1316,6 +1336,168 @@
 = barriers</t>
   </si>
   <si>
+    <t>soothsayer</t>
+  </si>
+  <si>
+    <t>算命者，预言者
+= fortune teller</t>
+  </si>
+  <si>
+    <t>expertise</t>
+  </si>
+  <si>
+    <t>n.专门知识；专门技能
+= knowledge</t>
+  </si>
+  <si>
+    <t>revamp
+/ˈriːvæmp/</t>
+  </si>
+  <si>
+    <t>v.修改，翻新，改进
+n.翻新，改建，改组
+= reconstruct</t>
+  </si>
+  <si>
+    <t>wind up</t>
+  </si>
+  <si>
+    <t>结束
+= end up</t>
+  </si>
+  <si>
+    <t>curtail</t>
+  </si>
+  <si>
+    <t>减缩，限制
+= restrict</t>
+  </si>
+  <si>
+    <t>substantially</t>
+  </si>
+  <si>
+    <t>大量地，可观地
+= considerably</t>
+  </si>
+  <si>
+    <t>in the driver's seat</t>
+  </si>
+  <si>
+    <t>处于统治地位，掌握主动权
+= dominant</t>
+  </si>
+  <si>
+    <t>onset</t>
+  </si>
+  <si>
+    <t>n.（尤指某种坏事情的）开始
+= beginning</t>
+  </si>
+  <si>
+    <t>sophistication</t>
+  </si>
+  <si>
+    <t>精明老练；（机器、方法的）精密，复杂
+= upgrade n.改善，提高档次；（计算机的）升级；上坡
+= renovate 修复；翻新；重新粉刷</t>
+  </si>
+  <si>
+    <t>preferential</t>
+  </si>
+  <si>
+    <t>优先的，优待的，优惠的
+= favored 有利的；受到优待的</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>adj.酸的；馊的，酸臭的；不友善的，脾气坏的；（关系、计划等变得）坏的
+v.（使）（关系、情况）变糟，变坏
+= worsen</t>
+  </si>
+  <si>
+    <t>stagnate
+/stæɡˈneɪt/</t>
+  </si>
+  <si>
+    <t>v.停滞，不发展
+= depress v.使抑郁，使沮丧；降低，抑制</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>目标
+= goal</t>
+  </si>
+  <si>
+    <t>oppose (to)</t>
+  </si>
+  <si>
+    <t>反对
+= object (to sth.)</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>adj.薄的；瘦的；（数目或数量）少的，小量的
+= small</t>
+  </si>
+  <si>
+    <t>implausible
+/ɪmˈplɔːzəb(ə)l/</t>
+  </si>
+  <si>
+    <t>难以置信的
+= incredible
+= unbelievable</t>
+  </si>
+  <si>
+    <t>comprehensive</t>
+  </si>
+  <si>
+    <t>综合性的，全面的；有理解力的
+= understandable</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>普通的，中等的；（变化）不大的
+= ease</t>
+  </si>
+  <si>
+    <t>global company</t>
+  </si>
+  <si>
+    <t>跨国公司
+= multinational company</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>（身体或精神）脆弱的，易受伤的
+= susceptible 易得病的，易受影响的</t>
+  </si>
+  <si>
+    <t>fluctuate</t>
+  </si>
+  <si>
+    <t>波动，起伏不定
+= change</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>v.召集，集合；恢复，重新振作；（价格）回升
+n.集会，大会
+= recovery</t>
+  </si>
+  <si>
     <t>capital goods</t>
   </si>
   <si>
@@ -1408,7 +1590,13 @@
     <t>export quota</t>
   </si>
   <si>
-    <t>出口定额</t>
+    <t>出口定额，出口配额</t>
+  </si>
+  <si>
+    <t>export quota system</t>
+  </si>
+  <si>
+    <t>出口配额制</t>
   </si>
   <si>
     <t>trade in services</t>
@@ -1598,9 +1786,6 @@
     <t>识字率</t>
   </si>
   <si>
-    <t>sophistication</t>
-  </si>
-  <si>
     <t>精明老练</t>
   </si>
   <si>
@@ -1720,6 +1905,10 @@
   </si>
   <si>
     <t>垄断的；控制的；独占的</t>
+  </si>
+  <si>
+    <t>monopolize
+/məˈnɒpəlaɪz/</t>
   </si>
   <si>
     <t>equity</t>
@@ -1985,6 +2174,12 @@
 即宏观层面的国民经济，包括一国国民经济总量、国民经济构成（主要分为GDP部门与非GDP部门）、产业发展阶段与产业结构、经济发展程度（人类发展指数、社会发展指数、社会福利指数、幸福指数）。</t>
   </si>
   <si>
+    <t>macroeconomic factors</t>
+  </si>
+  <si>
+    <t>宏观经济因素</t>
+  </si>
+  <si>
     <t>non-performing loan</t>
   </si>
   <si>
@@ -2168,6 +2363,590 @@
   </si>
   <si>
     <t>保守的</t>
+  </si>
+  <si>
+    <t>speculative</t>
+  </si>
+  <si>
+    <t>推测的，猜测的，推断的；投机性的，风险性的</t>
+  </si>
+  <si>
+    <t>n.可能性，希望；预期，展望</t>
+  </si>
+  <si>
+    <t>dismantle</t>
+  </si>
+  <si>
+    <r>
+      <t>拆开，拆卸；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>废除，取消</t>
+    </r>
+  </si>
+  <si>
+    <t>ingrained
+/ɪnˈɡreɪnd/</t>
+  </si>
+  <si>
+    <t>adj.根深蒂固的</t>
+  </si>
+  <si>
+    <t>formidable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF101214"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可怕的，令人敬畏的</t>
+    </r>
+  </si>
+  <si>
+    <t>congressional</t>
+  </si>
+  <si>
+    <t>立法机构的，代表大会的，（美国）国会的</t>
+  </si>
+  <si>
+    <t>retaliate</t>
+  </si>
+  <si>
+    <t>报复，反击</t>
+  </si>
+  <si>
+    <t>contentious
+/kənˈtenʃəs/</t>
+  </si>
+  <si>
+    <t>有争议的，引起争论的</t>
+  </si>
+  <si>
+    <t>grim</t>
+  </si>
+  <si>
+    <t>adj.严肃的，坚定的</t>
+  </si>
+  <si>
+    <t>elapse</t>
+  </si>
+  <si>
+    <t>消逝，时间的流逝</t>
+  </si>
+  <si>
+    <t>foodstuffs</t>
+  </si>
+  <si>
+    <t>食品，粮食</t>
+  </si>
+  <si>
+    <t>speculator</t>
+  </si>
+  <si>
+    <t>投机商，投机者</t>
+  </si>
+  <si>
+    <t>merger/merge</t>
+  </si>
+  <si>
+    <t>兼并</t>
+  </si>
+  <si>
+    <t>import quotas</t>
+  </si>
+  <si>
+    <t>进口配额</t>
+  </si>
+  <si>
+    <t>trade deficit</t>
+  </si>
+  <si>
+    <t>贸易逆差</t>
+  </si>
+  <si>
+    <t>foreign-exchange reserves</t>
+  </si>
+  <si>
+    <t>外汇储备</t>
+  </si>
+  <si>
+    <t>manufactured goods</t>
+  </si>
+  <si>
+    <t>制成品</t>
+  </si>
+  <si>
+    <t>stock exchange</t>
+  </si>
+  <si>
+    <t>证券交易所</t>
+  </si>
+  <si>
+    <t>convince</t>
+  </si>
+  <si>
+    <t>使确信，使信服</t>
+  </si>
+  <si>
+    <t>deep pocket</t>
+  </si>
+  <si>
+    <t>金主：指拥有大量财富和资源的人或组织，通常用于表示他们在金钱方面的慷慨和支持。</t>
+  </si>
+  <si>
+    <t>jostle
+/ˈdʒɒs(ə)l/</t>
+  </si>
+  <si>
+    <t>vt.推挤；争夺
+vi.竞争，争夺；推挤</t>
+  </si>
+  <si>
+    <t>eke out</t>
+  </si>
+  <si>
+    <t>勉强维持</t>
+  </si>
+  <si>
+    <t>conspicuous
+/kənˈspɪkjuəs/</t>
+  </si>
+  <si>
+    <t>出色的，引人注目的</t>
+  </si>
+  <si>
+    <t>postwar</t>
+  </si>
+  <si>
+    <t>战后的</t>
+  </si>
+  <si>
+    <t>a spate of</t>
+  </si>
+  <si>
+    <t>一连串的，一系列的：指在短时间内发生的大量相似事件。</t>
+  </si>
+  <si>
+    <t>refine</t>
+  </si>
+  <si>
+    <t>精炼，提纯；改进，改善</t>
+  </si>
+  <si>
+    <t>refinery</t>
+  </si>
+  <si>
+    <t>提炼厂，精炼厂</t>
+  </si>
+  <si>
+    <t>salvage 
+/ˈsælvɪdʒ/
+profit</t>
+  </si>
+  <si>
+    <t>打捞利润</t>
+  </si>
+  <si>
+    <t>salvage boat</t>
+  </si>
+  <si>
+    <t>海难救援船</t>
+  </si>
+  <si>
+    <t>raft of sth.</t>
+  </si>
+  <si>
+    <t>大量
+raft 筏，橡皮艇</t>
+  </si>
+  <si>
+    <t>insuperable
+/ɪnˈsuːpərəb(ə)l/</t>
+  </si>
+  <si>
+    <t>不能克服的；无敌的</t>
+  </si>
+  <si>
+    <t>sluggish
+/ˈslʌɡɪʃ/</t>
+  </si>
+  <si>
+    <t>缓慢的，迟钝的</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>促进，培养</t>
+  </si>
+  <si>
+    <t>cajole
+/kəˈdʒəʊl/</t>
+  </si>
+  <si>
+    <t>vt.以甜言蜜语哄骗；勾引</t>
+  </si>
+  <si>
+    <t>living level</t>
+  </si>
+  <si>
+    <t>生活水平</t>
+  </si>
+  <si>
+    <t>economic recession</t>
+  </si>
+  <si>
+    <t>经济衰退</t>
+  </si>
+  <si>
+    <t>portfolio investment</t>
+  </si>
+  <si>
+    <t>证券投资</t>
+  </si>
+  <si>
+    <t>baby-boomers</t>
+  </si>
+  <si>
+    <t>婴儿潮一代：指1946年至1964年间出生的人，这一时期出生人数激增，因此被称为婴儿潮。</t>
+  </si>
+  <si>
+    <t>Organization for Economic Cooperation and Development</t>
+  </si>
+  <si>
+    <t>经济合作与发展组织</t>
+  </si>
+  <si>
+    <t>penetrate</t>
+  </si>
+  <si>
+    <t>渗入，打入(组织、团体等)</t>
+  </si>
+  <si>
+    <t>hobble</t>
+  </si>
+  <si>
+    <t>vi.蹒跚；跛行
+vt.使跛行
+n.跛行步态</t>
+  </si>
+  <si>
+    <t>perpetuate
+/pəˈpetʃueɪt/</t>
+  </si>
+  <si>
+    <t>v.使持续，使长久（尤指不好的事物）</t>
+  </si>
+  <si>
+    <t>leapfrog</t>
+  </si>
+  <si>
+    <t>超过，超越(leapfrogging)</t>
+  </si>
+  <si>
+    <t>emanate
+/ˈeməneɪt/</t>
+  </si>
+  <si>
+    <t>v.产生；（抽象可感的东西）散发；表现出（品质）</t>
+  </si>
+  <si>
+    <t>practicable
+/ˈpræktɪkəbl/</t>
+  </si>
+  <si>
+    <t>可行的，行得通的</t>
+  </si>
+  <si>
+    <t>restive
+/ˈrestɪv/</t>
+  </si>
+  <si>
+    <t>难驾驭的；焦躁不安的</t>
+  </si>
+  <si>
+    <t>predecessor
+英/ˈpriːdəsesə(r)/
+美/ˈpredəsesər/</t>
+  </si>
+  <si>
+    <t>前任，前辈</t>
+  </si>
+  <si>
+    <t>in line with</t>
+  </si>
+  <si>
+    <t>与......一致；符合：表示某事物与另一事物保持一致或符合某种标准或规定。</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>（环境）恶劣的，艰苦的；严厉的，残酷的</t>
+  </si>
+  <si>
+    <t>generic
+/dʒəˈnerɪk/</t>
+  </si>
+  <si>
+    <t>一般的，通用的</t>
+  </si>
+  <si>
+    <t>commodity market</t>
+  </si>
+  <si>
+    <t>商品市场</t>
+  </si>
+  <si>
+    <t>trade policy</t>
+  </si>
+  <si>
+    <t>贸易政策</t>
+  </si>
+  <si>
+    <t>gulf area</t>
+  </si>
+  <si>
+    <t>海湾地区</t>
+  </si>
+  <si>
+    <t>Chinese Economic Area</t>
+  </si>
+  <si>
+    <t>中国经济区</t>
+  </si>
+  <si>
+    <t>a hermit nation</t>
+  </si>
+  <si>
+    <t>一个闭关自守的国家
+hermit /ˈhɜːmɪt/ 
+（尤指宗教原因的）隐士，隐居者</t>
+  </si>
+  <si>
+    <t>dour
+/dʊə(r)/</t>
+  </si>
+  <si>
+    <t>adj.
+严厉的</t>
+  </si>
+  <si>
+    <t>overlook</t>
+  </si>
+  <si>
+    <t>忽视，忽略；视而不见；眺望，俯瞰</t>
+  </si>
+  <si>
+    <t>a batch of</t>
+  </si>
+  <si>
+    <t>一批</t>
+  </si>
+  <si>
+    <t>paraphrase
+/ˈpærəfreɪz/</t>
+  </si>
+  <si>
+    <t>n.释义
+v.释义</t>
+  </si>
+  <si>
+    <t>rout 
+/raʊt/</t>
+  </si>
+  <si>
+    <t>n.溃败；溃退</t>
+  </si>
+  <si>
+    <t>optimistic</t>
+  </si>
+  <si>
+    <t>乐观的，高估的</t>
+  </si>
+  <si>
+    <t>footwear</t>
+  </si>
+  <si>
+    <t>鞋类</t>
+  </si>
+  <si>
+    <t>v.（使）集合，（使）聚集；装配，组装</t>
+  </si>
+  <si>
+    <t>compensation trade</t>
+  </si>
+  <si>
+    <t>补偿贸易：一种国际贸易方式，指进口国用本国产品或劳务抵消进口货款的一部分或全部。</t>
+  </si>
+  <si>
+    <t>OFDI(outward foreign direct investment)</t>
+  </si>
+  <si>
+    <t>对外直接投资</t>
+  </si>
+  <si>
+    <t>debt adjustment</t>
+  </si>
+  <si>
+    <t>债务调整</t>
+  </si>
+  <si>
+    <t>贸易盈余，贸易顺差
+贸易顺差：一个国家出口额超过进口额的经济现象，表示该国在国际贸易中赚取了净收入。</t>
+  </si>
+  <si>
+    <t>European Monetary System</t>
+  </si>
+  <si>
+    <t>欧洲货币体系</t>
+  </si>
+  <si>
+    <t>export-driven</t>
+  </si>
+  <si>
+    <t>以出口为目的</t>
+  </si>
+  <si>
+    <t>nouveau riche
+/ˌnuːvəʊ ˈriːʃ/</t>
+  </si>
+  <si>
+    <t>暴发户：指那些通过新的财富和社会地位迅速致富的人，通常被认为缺乏传统的社会礼仪和优雅。</t>
+  </si>
+  <si>
+    <t>dollar-denominated</t>
+  </si>
+  <si>
+    <t>美元标价的</t>
+  </si>
+  <si>
+    <t>asset price</t>
+  </si>
+  <si>
+    <t>资产价格：指某种资产在市场上的价格，如股票、债券、房地产等。</t>
+  </si>
+  <si>
+    <t>indicative</t>
+  </si>
+  <si>
+    <t>指示的，表明的</t>
+  </si>
+  <si>
+    <t>vague
+/veɪɡ/</t>
+  </si>
+  <si>
+    <t>不明确的，不清楚的；（形状）模糊的</t>
+  </si>
+  <si>
+    <t>elude
+/ɪˈluːd/</t>
+  </si>
+  <si>
+    <t>v.（尤指机智地，巧妙地）避开，逃避</t>
+  </si>
+  <si>
+    <t>financial firewall</t>
+  </si>
+  <si>
+    <t>金融防火墙</t>
+  </si>
+  <si>
+    <t>undertake</t>
+  </si>
+  <si>
+    <t>承担，承诺，答应</t>
+  </si>
+  <si>
+    <t>domestic demand</t>
+  </si>
+  <si>
+    <t>国内需求</t>
+  </si>
+  <si>
+    <t>service sectors / 
+service department</t>
+  </si>
+  <si>
+    <t>服务部门</t>
+  </si>
+  <si>
+    <t>counter-trade</t>
+  </si>
+  <si>
+    <t>对销贸易，反向贸易
+反向贸易：一种国际贸易形式，指两国之间通过商品交换而不使用货币结算的贸易。</t>
+  </si>
+  <si>
+    <t>coastal cities</t>
+  </si>
+  <si>
+    <t>沿海城市</t>
+  </si>
+  <si>
+    <t>economic heavyweight</t>
+  </si>
+  <si>
+    <t>举足轻重的经济强国</t>
+  </si>
+  <si>
+    <t>Organization of Petroleum Exporting Countries</t>
+  </si>
+  <si>
+    <t>石油输出国组织</t>
+  </si>
+  <si>
+    <t>client state</t>
+  </si>
+  <si>
+    <t>附庸国：一个在政治、经济或军事上受到另一个更强大国家支配或影响的国家。</t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>加强，强化（观点、思想或感觉）</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>紧握；掌握，控制</t>
+  </si>
+  <si>
+    <t>cyclical deceleration</t>
+  </si>
+  <si>
+    <t>周期性的下降</t>
+  </si>
+  <si>
+    <t>radical</t>
+  </si>
+  <si>
+    <t>激进的，极端的</t>
+  </si>
+  <si>
+    <t>divisive</t>
+  </si>
+  <si>
+    <t>有争议的，造成分裂的</t>
+  </si>
+  <si>
+    <t>inclusion</t>
+  </si>
+  <si>
+    <t>包含</t>
   </si>
   <si>
     <t>current account</t>
@@ -2553,7 +3332,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2563,7 +3342,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2573,7 +3352,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2583,7 +3362,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2593,7 +3372,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2603,7 +3382,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2613,7 +3392,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2623,7 +3402,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -2669,6 +3448,213 @@
 - grassroots 草根；基层</t>
   </si>
   <si>
+    <t>Once, when Japan faced pressure from abroad, it would either give in reluctantly or keep quiet and hope that the fuss would die down.
+从前，当日本面对来自国外的压力时，它或者会勉强屈服，或者会保持冷静，并且希望那些骚扰会逐渐消失。</t>
+  </si>
+  <si>
+    <t>No longer, it seems. The Clinton administration strongly believes in exerting such pressure. Its policy is to open some Japanese markets by setting import target-an approach to trade policy that supporters call "results-oriented". 
+但看起来日本已经不再采取这种态度。
+克林顿政府热衷于施加这样的压力。
+其政府旨在用设定进口指标的方法打开一些日本市场——拥护者将这一处理贸易政策的方法称之为“结果导向法”。</t>
+  </si>
+  <si>
+    <t>This ugly term foreshadows uncertain consequences. 
+Far from capitulating to this new thrust of American trade policy, Japan is taking a stand that could lead to a trans-Pacific confrontation.
+这一令人生厌的术语预示了许多不确定的结果。(工分)日本非但没有向美国新推行的贸易政策屈服，反而采取了一种可能导致跨太平洋冲突的立场。</t>
+  </si>
+  <si>
+    <t>December 11,2011 marks the tenth anniversay of an event, which profoundly changed the global economy: China's accession to the World Trade Organization.
+2011年12月11日是中国加入世界贸易组织十周年，这一事件深刻地改变了全球经济。</t>
+  </si>
+  <si>
+    <t>It is difficult not to overstate the effects of this accession, certainly on China, but also on China, strading partners and on the global trading system itself. 
+很难不夸大这次加入的影响，当然是对中国的影响，也对中国、跨国界伙伴和全球贸易体系本身的影响。</t>
+  </si>
+  <si>
+    <t>By integrating fully into the global economy, China has become the largest exporter of manufactured goods and the second largest economy in the world.
+通过全面融入全球经济，中国已成为世界上最大的制成品出口国和第二大经济体。</t>
+  </si>
+  <si>
+    <t>The remarkable trade expansion has contributed significantly to China's growth and development and has helped lift some 500 million people out of poverty.
+显著的贸易扩张为中国的增长和发展做出了重大贡献，帮助约5亿人摆脱了贫困。</t>
+  </si>
+  <si>
+    <t>To promote trade and innovation, the draft agreement offers new safeguards to owners of intellectual property.
+为了促进贸易和创新，协议草案为支持产权所有者提供了新的保障。</t>
+  </si>
+  <si>
+    <t>It brings trade in services into the GATT for the first time, opening new foreign markets to efficient producers of services in America and Europe. American's ambitious early goals for farm-trade liberalization will not be fully met by the compromise that is now within reach; but even in farming, a half-successful round will deliver great benefits.
+它首次把服务贸易纳入关税总协定，给美洲和欧洲的高效服务提供者打开了新的国外市场。美国最初的野心勃勃的农产品贸易自由化目标，在即将达成的妥协中将不能完全实现。但即使在农业方面，一轮成败参半的谈判仍会带来巨大的利益。</t>
+  </si>
+  <si>
+    <t>And if this package cna be banked, future rounds will be obliged to argue over how much to cut farm production, not whether-an achievement in itself.
+如果这一揽子计划有所指望的话，未来的多轮谈判必将削减多少农产品保护(措施)，而不是是否要削减——这本身是一个成就。</t>
+  </si>
+  <si>
+    <t>2011,dubbled(被称为)the "year of global indignation," revealed three major social problems of the current world.
+2011年被称为“全球愤怒的一年”，主要反映了当前全球的三大社会问题。</t>
+  </si>
+  <si>
+    <t>First, the financial crisis has caused rising income disparities. Living standards of the middle calss were severely impacted as their wealth shrank by a wide margin.
+首先，金融危机导致收入差异增大。中等阶层的生活水平因为财富的大量缩水而受到严重影响。</t>
+  </si>
+  <si>
+    <t>Second, rapidly developing information technology and globalization have brought people together. With the help of new media and non-state actors, turmoil in one country can easily spread to other countries. 
+第二，告诉增长的信息科技和全球化使得人们联系更紧密。新媒体和无国别的演员们使得一个国家的动乱能够轻易传播到另一个国家。</t>
+  </si>
+  <si>
+    <t>Third, the unbalanced population and employment structure have aggravated social tensions. The long-term unemployment of young people has made "young malcontents(不满现状者)" a common problem of the whole world.
+第三，人口和就业结构的不平衡分布加重了社会矛盾。年轻人的长期失业使得他们成为“年轻的新欢不满者”，这成为全球的一个通病。</t>
+  </si>
+  <si>
+    <t>China's chemical fiber output is expected to reach 41 million tons by 2015 while its production capacity will hit 46 millioin tons, the Ministry of Industry and Information Technology said Thursday.
+工业和信息化部周四表示，到2015年，中国化纤产量预计将达到4100万吨，产能将达到4600万吨。</t>
+  </si>
+  <si>
+    <t>The country targets an 8 percent growth in value-added output of the chemical fiber industry, according to a guideline issued Tuesday by the ministry regarding boosting the sector's development.
+根据该部周二发布的关于促进化纤行业发展的指导方针，中国的目标是使化纤行业的附加值产量增长8%。</t>
+  </si>
+  <si>
+    <t>Over the next four years, the chemical fiber companies will strengthen their abilities to self-innovate, push forward technological advances, promote energy conservation and the circular economy, according to the guideline.
+根据该指导方针，未来四年，化纤企业将加强自我创新能力，推动技术进步，促进节能和循环经济。</t>
+  </si>
+  <si>
+    <t>The industry will see better product structures and a sharp rise in its production capacity of high-performance chemical fibers by 2015, the guideline said.
+该指南称，到2015年，该行业的产品结构将得到改善，高性能化学纤维的生产能力将大幅提高。</t>
+  </si>
+  <si>
+    <t>While the global financial crisis continued to take a toll on societies and politics globally, 2011 has been a relentless turmoil and chaos. What underlies these waves of turmoil is the labor pains of the birth of a new international order.
+尽管全球金融危机继续对全球社会和政治造成影响，但2011年却是一场无情的动荡和混乱。这些动荡浪潮的背后是新国际秩序诞生的阵痛。</t>
+  </si>
+  <si>
+    <t>Economy growth was severely unbalanced in 2011. The European and U.S. debt crises have gravely delayed the recovery of the world economy.
+2011年经济增长严重不平衡。欧洲和美国的债务危机严重推迟了世界经济的复苏。</t>
+  </si>
+  <si>
+    <t>Though the United States raised its debt ceiling after heated debate to avoid default, the Standard &amp; Poor's rating agency downgraded the credit rating of the United States for the first time.
+尽管美国在激烈辩论后提高了债务上限以避免违约，但标准普尔评级机构首次下调了美国的信用评级。</t>
+  </si>
+  <si>
+    <t>Against this deteriorating global background, the improvement in economic performance in a few developing regions in 1991 - which carried over into 1992 - was especially noteworthy.
+在这种日益恶化的全球背景下，1991年几个发展中区域的经济表现有所改善——这种改善一直延续到1992年——尤其值得注意。</t>
+  </si>
+  <si>
+    <t>This improvement is attributable, in part, to the implementation by many governments of measures to stabilize their economies and restructure incentives to encourage private initiative and international trade.
+这种改善在一定程度上归因于许多政府采取措施稳定其经济，调整激励措施，以鼓励私人倡议和国际贸易。</t>
+  </si>
+  <si>
+    <t>Policy reforms in Latin America helped to moderate inflation and domestic demand; East Asia economics, supported by growth in export volume in the range of 10 percent and by robust domestic demand, continued to grow rapidly.
+拉丁美洲的政策改革有助于缓和通货膨胀和国内需求；东亚经济在10%的出口增长和强劲的国内需求的支持下继续快速增长。</t>
+  </si>
+  <si>
+    <t>Also noteworthy was the implementation by the Pads Club of a new menu of enhanced concessions on debt rescheduling for the severely indebted, low-income countries.
+同样值得注意的是，Pads俱乐部在重债低收入国家的债务重新安排方面实施了一项新的优惠政策。</t>
+  </si>
+  <si>
+    <t>For most people involved in the production and trading of "soft" or agricultural commodities, this is proving to be a grim decade.
+对于大多数参与“软”或农产品生产和交易的人来说，这是一个严峻的十年。</t>
+  </si>
+  <si>
+    <t>Prices are in many cases at, or near, historic lows in real terms as markets struggle to cope with floods of surplus produce.
+在许多情况下，由于市场难以应对过剩农产品的泛滥，实际价格处于或接近历史低点。</t>
+  </si>
+  <si>
+    <t>With most soothsayers forecasting flat, or still lower, prices-the markets themselves have lost much of their allure.
+由于大多数预言家预测价格持平或更低，市场本身已经失去了很大的吸引力。</t>
+  </si>
+  <si>
+    <t>Speculators who profited handsomely from the price volatility of the 1970s have deserted soft commodities for the newer excitement of financial futures or the security and big yields afforded by the equity and money markets.
+从20世纪70年代的价格波动中获利颇丰的投机者已经放弃了软商品，转而追求金融期货的新刺激，或者股票和货币市场提供的安全性和高收益。</t>
+  </si>
+  <si>
+    <t>It is strange, indeed, to observe that only 10 years have clapsed since many respected forecasters were warning of impending global shortages of basic raw materials and foodstuffs.
+事实上，令人奇怪的是，自许多受人尊敬的预测者警告全球基本原材料和食品即将短缺以来，仅仅过去了10年。</t>
+  </si>
+  <si>
+    <t>It is no coincidence that government departments in the various emirates are welcoming bids from consultants that are new to the area.
+各酋长国的政府部门欢迎该地区新顾问的投标，这绝非巧合。</t>
+  </si>
+  <si>
+    <t>Easily lured away from the recession-hit West by the notion that the streets of Abu Dhabi and Dubai are paved with gold, these companies are tending to submit very low offers to gain a foothold in the area.
+阿布扎比和迪拜的街道上铺满了黄金，这些公司很容易被西方经济衰退所吸引，他们倾向于提交非常低的报价来在该地区站稳脚跟。</t>
+  </si>
+  <si>
+    <t>While there undoubtedly is work about and the outlook for the UAE is bright, the ever increasing competition among consultants and contractors means that margins are being squeezed.
+尽管阿联酋无疑还有工作要做，前景光明，但顾问和承包商之间日益激烈的竞争意味着利润率正在受到挤压。</t>
+  </si>
+  <si>
+    <t>In the opinion of one major local consultant, the only way forward is to diversify: "Diversification into project management in the oil and gas sector is the only way to secure continuity of work and revenues and keep international cliber consultants on the ground."
+在一位主要的当地顾问看来，唯一的出路是实现多元化：“石油和天然气行业项目管理的多元化是确保工作和收入连续性并让国际顾问留在当地的唯一途径。”</t>
+  </si>
+  <si>
+    <t>U.S. government officials worry that the explosive growth in countertrade will weaken the world trading system. By concealing the real prices and costs of transactions, says one U.S. trade representative, the various forms of barter may conceal and help perpetuate economic inefficiencies in the marketplace.
+美国政府官员担心，反贸易的爆炸性增长将削弱世界贸易体系。一位美国贸易代表表示，通过隐瞒交易的真实价格和成本，各种形式的易货交易可能会掩盖并有助于使市场经济效率低下。</t>
+  </si>
+  <si>
+    <t>Barter can also be risky business. "Many companies," says David Yoffie, "suffer losses because they're stuck with products of poor quality or with the wrong specifications."
+物物交换也可能是有风险的业务。“许多公司，”David Yoffie说，“因为他们坚持使用质量差或规格错误的产品而遭受损失。”</t>
+  </si>
+  <si>
+    <t>International trade by barter is, according to some experts, an inefficient and expensive means of doing business compared to trading with money.
+根据一些专家的说法，与货币交易相比，以物易物的国际贸易是一种低效且昂贵的商业方式。</t>
+  </si>
+  <si>
+    <t>On the other hand, some other experts assert that the rise of countertrade provides solutions to the debt problems of the international monetary system.
+另一方面，一些其他专家断言，反贸易的兴起为国际货币体系的债务问题提供了解决方案。</t>
+  </si>
+  <si>
+    <t>In matters relating to the environemnt, the United Nations Conference on Environment and Development, held in June 1992 in Rio de Janciro, produced an "Earth Charter", or declaration of basic principles for the conduct of nations and peoples with respect to environment and development.
+在与环境有关的问题上，1992年6月在里约热内卢举行的联合国环境与发展会议制定了《地球宪章》，即各国和各国人民在环境与发展方面行为的基本原则宣言。</t>
+  </si>
+  <si>
+    <t>Agreements on specific legal measures, including conventions(公约) on climate change and biodiversity, and principles for a framework agreement on forests.
+关于包括公约在内的具体法律措施的协定(公约) 气候变化和生物多样性以及森林框架协定的原则。</t>
+  </si>
+  <si>
+    <t>An agenda for action("Agenda 21"), establishing the environmental work program agreed by the international community for the period beyond 1992 and into the twenty-first century.
+行动纲领（“21世纪议程”），确立国际社会商定的1992年以后至21世纪的环境工作方案。</t>
+  </si>
+  <si>
+    <t>The next challenge will be to assist trade in services, which is growing more quickly than trade in goods.
+下一个挑战将是协助服务贸易，因为服务贸易的增长速度快于货物贸易。</t>
+  </si>
+  <si>
+    <t>A fresh round of services talks is due to start in 2000.
+新一轮的服务业谈判定于2000年开始。</t>
+  </si>
+  <si>
+    <t>The aim will be to strengthen last year's agreements on telecoms, financial services and IT, as well as completing an accord on accountancy services which is currently being negotiated.
+其目的是加强去年在电信、金融服务和IT方面的协议，并完成目前正在谈判的会计服务协议。</t>
+  </si>
+  <si>
+    <t>Rich countries want firm rules on government procurement, to replace the vague existing code.
+富裕国家希望政府采购有明确的规则，以取代模糊的现有法规。</t>
+  </si>
+  <si>
+    <t>Some countries, but not America, are also keen to tackle other subjects that eluded agreement in earlier talks, such as shiping.
+一些国家，但不是美国，也热衷于解决早些时候谈判中未能达成一致的其他问题，例如航运。</t>
+  </si>
+  <si>
+    <t>These will prove thorny, too, as any global talks will have to cope with bilateral agreements dating back decades.
+这些也将被证明是棘手的，因为任何全球谈判都必须处理几十年前的双边协议。</t>
+  </si>
+  <si>
+    <t>Monetary Union, warns Malcolm Rifkind, the British foreign sectetary, will be a radical and divisive departure from 40 years of common Policies.
+英国外交界人士马尔科姆·里夫金德警告说，货币联盟将与40年来的共同政策大相径庭。</t>
+  </si>
+  <si>
+    <t>"Europe will be divided between those countries that are part of economic and monetary union, and those countries that are not," he said. "This is not what the founding fathers had in mind."
+他说：“欧洲将分为经济和货币联盟成员国和非成员国。”“这不是开国元勋们的想法。”</t>
+  </si>
+  <si>
+    <t>Hints of a potential rupture are already apparent in the strained relations between Germany and southern EU members.
+德国与欧盟南部成员国之间的紧张关系已经明显显示出潜在破裂的迹象。</t>
+  </si>
+  <si>
+    <t>While many Germans fear the inclusion of the lira and the peseta will produce a weak euro, leaders of Italy, Spain and Portugal have stepped up their campaign to join monetary union at the outset.
+尽管许多德国人担心里拉和比塞塔的加入会导致欧元疲软，但意大利、西班牙和葡萄牙领导人一开始就加大了加入货币联盟的力度。</t>
+  </si>
+  <si>
     <t>增加</t>
   </si>
   <si>
@@ -2682,9 +3668,6 @@
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>reinforce</t>
   </si>
   <si>
     <t>加强</t>
@@ -2721,6 +3704,40 @@
     <t>（使）加快，促进；（车辆或驾驶者）加速</t>
   </si>
   <si>
+    <t>突然增加</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>balloon</t>
+  </si>
+  <si>
+    <t>n.气球
+v.激增；突然长胖；膨胀</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>暴涨</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>skyrocket</t>
+  </si>
+  <si>
+    <t>（价格）飞涨，猛涨</t>
+  </si>
+  <si>
+    <t>step up</t>
+  </si>
+  <si>
+    <t>加快，提高</t>
+  </si>
+  <si>
     <t>减少</t>
   </si>
   <si>
@@ -2772,10 +3789,28 @@
     <t>急速下降</t>
   </si>
   <si>
-    <t>curtail</t>
-  </si>
-  <si>
     <t>减缩</t>
+  </si>
+  <si>
+    <t>lessen</t>
+  </si>
+  <si>
+    <t>（使）缩小，（使）减少</t>
+  </si>
+  <si>
+    <t>减缩，限制</t>
+  </si>
+  <si>
+    <t>dampen</t>
+  </si>
+  <si>
+    <t>减弱，抑制</t>
+  </si>
+  <si>
+    <t>skid</t>
+  </si>
+  <si>
+    <t>slid</t>
   </si>
 </sst>
 </file>
@@ -2788,7 +3823,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2797,15 +3832,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2813,36 +3840,34 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF101214"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3297,46 +4322,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3348,138 +4376,162 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3829,103 +4881,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="32.1111111111111" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="35.5555555555556" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="33.6" spans="1:1">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:1">
-      <c r="A3" s="8" t="s">
+    <row r="3" ht="50.4" spans="1:1">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="33.6" spans="1:1">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:1">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="33.6" spans="1:1">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
+    <row r="8" ht="33.6" spans="1:1">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:1">
-      <c r="A9" s="7" t="s">
+    <row r="9" ht="50.4" spans="1:1">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:1">
-      <c r="A10" s="12" t="s">
+    <row r="10" ht="33.6" spans="1:1">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:1">
-      <c r="A16" s="8" t="s">
+    <row r="16" ht="50.4" spans="1:1">
+      <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:1">
-      <c r="A17" s="7" t="s">
+    <row r="17" ht="33.6" spans="1:1">
+      <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3938,1310 +4990,1493 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B162"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
+      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.8888888888889" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.8888888888889" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="15.8888888888889" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.8888888888889" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="57.6" spans="1:2">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="84" spans="1:2">
+      <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" ht="43.2" spans="1:2">
-      <c r="A14" s="7" t="s">
+    <row r="14" ht="50.4" spans="1:2">
+      <c r="A14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" ht="43.2" spans="1:2">
-      <c r="A16" s="7" t="s">
+    <row r="16" ht="50.4" spans="1:2">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" ht="72" spans="1:2">
-      <c r="A21" s="7" t="s">
+    <row r="21" ht="100.8" spans="1:2">
+      <c r="A21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" ht="43.2" spans="1:2">
-      <c r="A22" s="7" t="s">
+    <row r="22" ht="50.4" spans="1:2">
+      <c r="A22" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" ht="43.2" spans="1:2">
-      <c r="A25" s="7" t="s">
+    <row r="25" ht="67.2" spans="1:2">
+      <c r="A25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
+    <row r="32" ht="33.6" spans="1:2">
+      <c r="A32" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" ht="43.2" spans="1:2">
-      <c r="A34" s="7" t="s">
+    <row r="34" ht="50.4" spans="1:2">
+      <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:2">
-      <c r="A37" s="7" t="s">
+    <row r="37" ht="33.6" spans="1:2">
+      <c r="A37" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
+    <row r="38" ht="50.4" spans="1:2">
+      <c r="A38" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" ht="28.8" spans="1:2">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="7" t="s">
+    <row r="40" ht="50.4" spans="1:2">
+      <c r="A40" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" ht="43.2" spans="1:2">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
+    <row r="42" ht="50.4" spans="1:2">
+      <c r="A42" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" ht="57.6" spans="1:2">
-      <c r="A43" s="7" t="s">
+    <row r="43" ht="50.4" spans="1:2">
+      <c r="A43" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" ht="43.2" spans="1:2">
-      <c r="A44" s="7" t="s">
+    <row r="44" ht="67.2" spans="1:2">
+      <c r="A44" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" ht="28.8" spans="1:2">
-      <c r="A45" s="7" t="s">
+    <row r="45" ht="50.4" spans="1:2">
+      <c r="A45" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" ht="43.2" spans="1:2">
-      <c r="A46" s="7" t="s">
+    <row r="46" ht="33.6" spans="1:2">
+      <c r="A46" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" ht="57.6" spans="1:2">
-      <c r="A47" s="7" t="s">
+    <row r="47" ht="50.4" spans="1:2">
+      <c r="A47" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" ht="28.8" spans="1:2">
-      <c r="A48" s="7" t="s">
+    <row r="48" ht="84" spans="1:2">
+      <c r="A48" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" ht="28.8" spans="1:2">
-      <c r="A49" s="7" t="s">
+    <row r="49" ht="33.6" spans="1:2">
+      <c r="A49" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" ht="28.8" spans="1:2">
-      <c r="A50" s="7" t="s">
+    <row r="50" ht="50.4" spans="1:2">
+      <c r="A50" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" ht="43.2" spans="1:2">
-      <c r="A51" s="7" t="s">
+    <row r="51" ht="67.2" spans="1:2">
+      <c r="A51" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" ht="28.8" spans="1:2">
-      <c r="A52" s="7" t="s">
+    <row r="52" ht="50.4" spans="1:2">
+      <c r="A52" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" ht="28.8" spans="1:2">
-      <c r="A53" s="7" t="s">
+    <row r="53" ht="33.6" spans="1:2">
+      <c r="A53" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" ht="28.8" spans="1:2">
-      <c r="A54" s="7" t="s">
+    <row r="54" ht="33.6" spans="1:2">
+      <c r="A54" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="7" t="s">
+    <row r="55" ht="50.4" spans="1:2">
+      <c r="A55" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" ht="28.8" spans="1:2">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="7" t="s">
+    <row r="57" ht="33.6" spans="1:2">
+      <c r="A57" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" ht="43.2" spans="1:2">
-      <c r="A58" s="7" t="s">
+    <row r="58" ht="33.6" spans="1:2">
+      <c r="A58" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" ht="50.4" spans="1:2">
+      <c r="A59" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" ht="57.6" spans="1:2">
-      <c r="A60" s="7" t="s">
+      <c r="B59" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="7" t="s">
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" ht="28.8" spans="1:2">
-      <c r="A61" s="7" t="s">
+    <row r="61" ht="67.2" spans="1:2">
+      <c r="A61" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62" ht="43.2" spans="1:2">
-      <c r="A62" s="7" t="s">
+    <row r="62" ht="33.6" spans="1:2">
+      <c r="A62" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" ht="28.8" spans="1:2">
-      <c r="A63" s="7" t="s">
+    <row r="63" ht="50.4" spans="1:2">
+      <c r="A63" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="64" ht="28.8" spans="1:2">
-      <c r="A64" s="7" t="s">
+    <row r="64" ht="50.4" spans="1:2">
+      <c r="A64" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" ht="28.8" spans="1:2">
-      <c r="A65" s="7" t="s">
+    <row r="65" ht="50.4" spans="1:2">
+      <c r="A65" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
+    <row r="66" ht="33.6" spans="1:2">
+      <c r="A66" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" ht="28.8" spans="1:2">
-      <c r="A67" s="7" t="s">
+    <row r="67" ht="33.6" spans="1:2">
+      <c r="A67" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="7" t="s">
+    <row r="68" ht="33.6" spans="1:2">
+      <c r="A68" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" ht="28.8" spans="1:2">
-      <c r="A69" s="7" t="s">
+    <row r="69" ht="50.4" spans="1:2">
+      <c r="A69" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" ht="28.8" spans="1:2">
-      <c r="A70" s="7" t="s">
+    <row r="70" ht="33.6" spans="1:2">
+      <c r="A70" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="7" t="s">
+    <row r="71" ht="33.6" spans="1:2">
+      <c r="A71" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="72" ht="28.8" spans="1:2">
-      <c r="A72" s="7" t="s">
+    <row r="72" ht="67.2" spans="1:2">
+      <c r="A72" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" ht="28.8" spans="1:2">
-      <c r="A73" s="7" t="s">
+    <row r="73" ht="50.4" spans="1:2">
+      <c r="A73" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" ht="28.8" spans="1:2">
-      <c r="A74" s="7" t="s">
+    <row r="74" ht="33.6" spans="1:2">
+      <c r="A74" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="75" ht="28.8" spans="1:2">
-      <c r="A75" s="7" t="s">
+    <row r="75" ht="50.4" spans="1:2">
+      <c r="A75" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="76" ht="86.4" spans="1:2">
-      <c r="A76" s="7" t="s">
+    <row r="76" ht="33.6" spans="1:2">
+      <c r="A76" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="77" ht="28.8" spans="1:2">
-      <c r="A77" s="7" t="s">
+    <row r="77" ht="117.6" spans="1:2">
+      <c r="A77" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" ht="28.8" spans="1:2">
-      <c r="A78" s="7" t="s">
+    <row r="78" ht="33.6" spans="1:2">
+      <c r="A78" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" ht="57.6" spans="1:2">
-      <c r="A79" s="7" t="s">
+    <row r="79" ht="50.4" spans="1:2">
+      <c r="A79" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="7" t="s">
+    <row r="80" ht="84" spans="1:2">
+      <c r="A80" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" ht="28.8" spans="1:2">
-      <c r="A81" s="7" t="s">
+    <row r="81" ht="33.6" spans="1:2">
+      <c r="A81" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="82" ht="43.2" spans="1:2">
-      <c r="A82" s="7" t="s">
+    <row r="82" ht="50.4" spans="1:2">
+      <c r="A82" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="83" ht="28.8" spans="1:2">
-      <c r="A83" s="7" t="s">
+    <row r="83" ht="50.4" spans="1:2">
+      <c r="A83" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="84" ht="28.8" spans="1:2">
-      <c r="A84" s="7" t="s">
+    <row r="84" ht="33.6" spans="1:2">
+      <c r="A84" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="85" ht="43.2" spans="1:2">
-      <c r="A85" s="7" t="s">
+    <row r="85" ht="33.6" spans="1:2">
+      <c r="A85" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="86" ht="28.8" spans="1:2">
-      <c r="A86" s="7" t="s">
+    <row r="86" ht="50.4" spans="1:2">
+      <c r="A86" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="87" ht="43.2" spans="1:2">
-      <c r="A87" s="7" t="s">
+    <row r="87" ht="33.6" spans="1:2">
+      <c r="A87" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="88" ht="28.8" spans="1:2">
-      <c r="A88" s="7" t="s">
+    <row r="88" ht="50.4" spans="1:2">
+      <c r="A88" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" ht="33.6" spans="1:2">
+      <c r="A89" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" ht="43.2" spans="1:2">
-      <c r="A89" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="90" ht="28.8" spans="1:2">
-      <c r="A90" s="7" t="s">
+    <row r="90" ht="50.4" spans="1:2">
+      <c r="A90" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="91" ht="28.8" spans="1:2">
-      <c r="A91" s="7" t="s">
+    <row r="91" ht="33.6" spans="1:2">
+      <c r="A91" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="92" ht="43.2" spans="1:2">
-      <c r="A92" s="7" t="s">
+    <row r="92" ht="33.6" spans="1:2">
+      <c r="A92" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="93" ht="28.8" spans="1:2">
-      <c r="A93" s="7" t="s">
+    <row r="93" ht="67.2" spans="1:2">
+      <c r="A93" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94" ht="57.6" spans="1:2">
-      <c r="A94" s="7" t="s">
+    <row r="94" ht="33.6" spans="1:2">
+      <c r="A94" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="95" ht="28.8" spans="1:2">
-      <c r="A95" s="7" t="s">
+    <row r="95" ht="84" spans="1:2">
+      <c r="A95" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96" ht="28.8" spans="1:2">
-      <c r="A96" s="7" t="s">
+    <row r="96" ht="33.6" spans="1:2">
+      <c r="A96" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="97" ht="43.2" spans="1:2">
-      <c r="A97" s="7" t="s">
+    <row r="97" ht="33.6" spans="1:2">
+      <c r="A97" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98" ht="28.8" spans="1:2">
-      <c r="A98" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="7" t="s">
+    <row r="98" ht="67.2" spans="1:2">
+      <c r="A98" s="14" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="99" ht="43.2" spans="1:2">
-      <c r="A99" s="7" t="s">
+      <c r="B98" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="7" t="s">
+    </row>
+    <row r="99" ht="33.6" spans="1:2">
+      <c r="A99" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="100" ht="28.8" spans="1:2">
-      <c r="A100" s="7" t="s">
+    <row r="100" ht="67.2" spans="1:2">
+      <c r="A100" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="101" ht="28.8" spans="1:2">
-      <c r="A101" s="7" t="s">
+    <row r="101" ht="33.6" spans="1:2">
+      <c r="A101" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="102" ht="28.8" spans="1:2">
-      <c r="A102" s="7" t="s">
+    <row r="102" ht="33.6" spans="1:2">
+      <c r="A102" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="103" ht="28.8" spans="1:2">
-      <c r="A103" s="7" t="s">
+    <row r="103" ht="33.6" spans="1:2">
+      <c r="A103" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="104" ht="28.8" spans="1:2">
-      <c r="A104" s="7" t="s">
+    <row r="104" ht="50.4" spans="1:2">
+      <c r="A104" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" ht="28.8" spans="1:2">
-      <c r="A105" s="7" t="s">
+    <row r="105" ht="33.6" spans="1:2">
+      <c r="A105" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="106" ht="43.2" spans="1:2">
-      <c r="A106" s="7" t="s">
+    <row r="106" ht="33.6" spans="1:2">
+      <c r="A106" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="107" ht="57.6" spans="1:2">
-      <c r="A107" s="7" t="s">
+    <row r="107" ht="50.4" spans="1:2">
+      <c r="A107" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="108" ht="57.6" spans="1:2">
-      <c r="A108" s="7" t="s">
+    <row r="108" ht="84" spans="1:2">
+      <c r="A108" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="109" ht="43.2" spans="1:2">
-      <c r="A109" s="7" t="s">
+    <row r="109" ht="84" spans="1:2">
+      <c r="A109" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="110" ht="43.2" spans="1:2">
-      <c r="A110" s="7" t="s">
+    <row r="110" ht="50.4" spans="1:2">
+      <c r="A110" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="111" ht="28.8" spans="1:2">
-      <c r="A111" s="7" t="s">
+    <row r="111" ht="50.4" spans="1:2">
+      <c r="A111" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="112" ht="43.2" spans="1:2">
-      <c r="A112" s="7" t="s">
+    <row r="112" ht="33.6" spans="1:2">
+      <c r="A112" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="113" ht="28.8" spans="1:2">
-      <c r="A113" s="7" t="s">
+    <row r="113" ht="50.4" spans="1:2">
+      <c r="A113" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="114" ht="28.8" spans="1:2">
-      <c r="A114" s="7" t="s">
+    <row r="114" ht="33.6" spans="1:2">
+      <c r="A114" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="115" ht="28.8" spans="1:2">
-      <c r="A115" s="7" t="s">
+    <row r="115" ht="33.6" spans="1:2">
+      <c r="A115" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="116" ht="28.8" spans="1:2">
-      <c r="A116" s="7" t="s">
+    <row r="116" ht="33.6" spans="1:2">
+      <c r="A116" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="117" ht="28.8" spans="1:2">
-      <c r="A117" s="7" t="s">
+    <row r="117" ht="33.6" spans="1:2">
+      <c r="A117" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="118" ht="28.8" spans="1:2">
-      <c r="A118" s="7" t="s">
+    <row r="118" ht="33.6" spans="1:2">
+      <c r="A118" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="119" ht="28.8" spans="1:2">
-      <c r="A119" s="7" t="s">
+    <row r="119" ht="33.6" spans="1:2">
+      <c r="A119" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="120" ht="28.8" spans="1:2">
-      <c r="A120" s="7" t="s">
+    <row r="120" ht="33.6" spans="1:2">
+      <c r="A120" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="121" ht="28.8" spans="1:2">
-      <c r="A121" s="7" t="s">
+    <row r="121" ht="33.6" spans="1:2">
+      <c r="A121" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="122" ht="28.8" spans="1:2">
-      <c r="A122" s="7" t="s">
+    <row r="122" ht="33.6" spans="1:2">
+      <c r="A122" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="123" ht="43.2" spans="1:2">
-      <c r="A123" s="7" t="s">
+    <row r="123" ht="50.4" spans="1:2">
+      <c r="A123" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="124" ht="28.8" spans="1:2">
-      <c r="A124" s="7" t="s">
+    <row r="124" ht="67.2" spans="1:2">
+      <c r="A124" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="20" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="125" ht="28.8" spans="1:2">
-      <c r="A125" s="1" t="s">
+    <row r="125" ht="33.6" spans="1:2">
+      <c r="A125" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="126" ht="28.8" spans="1:2">
-      <c r="A126" s="7" t="s">
+    <row r="126" ht="33.6" spans="1:2">
+      <c r="A126" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="127" ht="28.8" spans="1:2">
-      <c r="A127" s="7" t="s">
+    <row r="127" ht="33.6" spans="1:2">
+      <c r="A127" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="7" t="s">
+    <row r="128" ht="84" spans="1:2">
+      <c r="A128" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="129" ht="28.8" spans="1:2">
-      <c r="A129" s="7" t="s">
+    <row r="129" ht="50.4" spans="1:2">
+      <c r="A129" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="130" ht="28.8" spans="1:2">
-      <c r="A130" s="7" t="s">
+    <row r="130" ht="33.6" spans="1:2">
+      <c r="A130" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="14" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="131" ht="28.8" spans="1:2">
-      <c r="A131" s="7" t="s">
+    <row r="131" ht="50.4" spans="1:2">
+      <c r="A131" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="132" ht="43.2" spans="1:2">
-      <c r="A132" s="7" t="s">
+    <row r="132" ht="33.6" spans="1:2">
+      <c r="A132" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="133" ht="28.8" spans="1:2">
-      <c r="A133" s="7" t="s">
+    <row r="133" ht="50.4" spans="1:2">
+      <c r="A133" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="14" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="134" ht="28.8" spans="1:2">
-      <c r="A134" s="7" t="s">
+    <row r="134" ht="50.4" spans="1:2">
+      <c r="A134" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="135" ht="57.6" spans="1:2">
-      <c r="A135" s="7" t="s">
+    <row r="135" ht="33.6" spans="1:2">
+      <c r="A135" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="136" ht="57.6" spans="1:2">
-      <c r="A136" s="7" t="s">
+    <row r="136" ht="67.2" spans="1:2">
+      <c r="A136" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="14" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="137" ht="28.8" spans="1:2">
-      <c r="A137" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B137" s="1" t="s">
+    <row r="137" ht="84" spans="1:2">
+      <c r="A137" s="14" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="138" ht="28.8" spans="1:2">
-      <c r="A138" s="7" t="s">
+      <c r="B137" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B138" s="7" t="s">
+    </row>
+    <row r="138" ht="33.6" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="139" ht="129.6" spans="1:2">
-      <c r="A139" s="7" t="s">
+    <row r="139" ht="33.6" spans="1:2">
+      <c r="A139" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="14" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="140" ht="28.8" spans="1:2">
-      <c r="A140" s="7" t="s">
+    <row r="140" ht="151.2" spans="1:2">
+      <c r="A140" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="141" ht="28.8" spans="1:2">
-      <c r="A141" t="s">
+    <row r="141" ht="33.6" spans="1:2">
+      <c r="A141" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="14" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="142" ht="72" spans="1:2">
-      <c r="A142" s="7" t="s">
+    <row r="142" ht="33.6" spans="1:2">
+      <c r="A142" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="143" ht="144" spans="1:2">
-      <c r="A143" s="7" t="s">
+    <row r="143" ht="100.8" spans="1:2">
+      <c r="A143" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="7" t="s">
+    <row r="144" ht="218.4" spans="1:2">
+      <c r="A144" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="145" ht="43.2" spans="1:2">
-      <c r="A145" s="7" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="146" ht="43.2" spans="1:2">
-      <c r="A146" s="7" t="s">
+    <row r="146" ht="50.4" spans="1:2">
+      <c r="A146" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="147" ht="28.8" spans="1:2">
-      <c r="A147" s="7" t="s">
+    <row r="147" ht="67.2" spans="1:2">
+      <c r="A147" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="148" ht="57.6" spans="1:2">
-      <c r="A148" s="7" t="s">
+    <row r="148" ht="33.6" spans="1:2">
+      <c r="A148" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="7" t="s">
+    <row r="149" ht="84" spans="1:2">
+      <c r="A149" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="150" ht="28.8" spans="1:2">
-      <c r="A150" s="7" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="151" ht="43.2" spans="1:2">
-      <c r="A151" s="7" t="s">
+    <row r="151" ht="50.4" spans="1:2">
+      <c r="A151" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="152" ht="43.2" spans="1:2">
-      <c r="A152" s="7" t="s">
+    <row r="152" ht="67.2" spans="1:2">
+      <c r="A152" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="14" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="153" ht="100.8" spans="1:2">
-      <c r="A153" s="7" t="s">
+    <row r="153" ht="50.4" spans="1:2">
+      <c r="A153" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="154" ht="28.8" spans="1:2">
-      <c r="A154" s="7" t="s">
+    <row r="154" ht="117.6" spans="1:2">
+      <c r="A154" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="155" ht="57.6" spans="1:2">
-      <c r="A155" s="7" t="s">
+    <row r="155" ht="33.6" spans="1:2">
+      <c r="A155" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="14" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="156" ht="43.2" spans="1:2">
-      <c r="A156" s="7" t="s">
+    <row r="156" ht="67.2" spans="1:2">
+      <c r="A156" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="14" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="157" ht="28.8" spans="1:2">
-      <c r="A157" s="7" t="s">
+    <row r="157" ht="50.4" spans="1:2">
+      <c r="A157" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="14" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="158" ht="28.8" spans="1:2">
-      <c r="A158" s="7" t="s">
+    <row r="158" ht="50.4" spans="1:2">
+      <c r="A158" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="14" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="159" ht="28.8" spans="1:2">
-      <c r="A159" s="7" t="s">
+    <row r="159" ht="33.6" spans="1:2">
+      <c r="A159" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="14" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="160" ht="28.8" spans="1:2">
-      <c r="A160" s="7" t="s">
+    <row r="160" ht="33.6" spans="1:2">
+      <c r="A160" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="14" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="161" ht="28.8" spans="1:2">
-      <c r="A161" s="7" t="s">
+    <row r="161" ht="33.6" spans="1:2">
+      <c r="A161" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162"/>
-      <c r="B162"/>
+    <row r="162" ht="33.6" spans="1:2">
+      <c r="A162" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" ht="33.6" spans="1:5">
+      <c r="A163" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" ht="33.6" spans="1:2">
+      <c r="A164" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" ht="50.4" spans="1:2">
+      <c r="A165" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="166" ht="33.6" spans="1:2">
+      <c r="A166" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" ht="33.6" spans="1:2">
+      <c r="A167" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="168" ht="33.6" spans="1:2">
+      <c r="A168" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="169" ht="50.4" spans="1:2">
+      <c r="A169" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="170" ht="33.6" spans="1:2">
+      <c r="A170" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="171" ht="100.8" spans="1:2">
+      <c r="A171" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="172" ht="50.4" spans="1:2">
+      <c r="A172" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="173" ht="100.8" spans="1:2">
+      <c r="A173" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="174" ht="50.4" spans="1:2">
+      <c r="A174" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="175" ht="33.6" spans="1:2">
+      <c r="A175" t="s">
+        <v>360</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" ht="33.6" spans="1:2">
+      <c r="A176" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="177" ht="50.4" spans="1:2">
+      <c r="A177" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="178" ht="50.4" spans="1:2">
+      <c r="A178" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="179" ht="50.4" spans="1:2">
+      <c r="A179" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="180" ht="50.4" spans="1:2">
+      <c r="A180" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="181" ht="33.6" spans="1:2">
+      <c r="A181" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="182" ht="67.2" spans="1:2">
+      <c r="A182" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="183" ht="33.6" spans="1:2">
+      <c r="A183" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="184" ht="67.2" spans="1:2">
+      <c r="A184" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>379</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5252,1516 +6487,2272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B277"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
+      <selection pane="bottomLeft" activeCell="I239" sqref="I239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.8888888888889" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33.8888888888889" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="17.4444444444444" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.8888888888889" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="38" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="8" customFormat="1" ht="38" customHeight="1" spans="1:2">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" ht="43.2" spans="1:2">
-      <c r="A6" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:2">
-      <c r="A7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>299</v>
+    <row r="2" ht="33.6" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" ht="33.6" spans="1:2">
+      <c r="A3" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" ht="33.6" spans="1:2">
+      <c r="A4" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" ht="50.4" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" ht="50.4" spans="1:2">
+      <c r="A6" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" ht="50.4" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" ht="33.6" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" ht="33.6" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" ht="57.6" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A10" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" ht="67.2" spans="1:2">
+      <c r="A11" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" ht="50.4" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" ht="50.4" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" ht="50.4" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" ht="33.6" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" ht="33.6" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" ht="33.6" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" ht="33.6" spans="1:2">
+      <c r="A20" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" ht="33.6" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" ht="33.6" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" ht="50.4" spans="1:2">
+      <c r="A23" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" ht="33.6" spans="1:2">
+      <c r="A25" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" ht="33.6" spans="1:2">
+      <c r="A26" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" ht="33.6" spans="1:2">
+      <c r="A27" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28" ht="33.6" spans="1:2">
+      <c r="A28" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" ht="33.6" spans="1:2">
+      <c r="A29" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" ht="33.6" spans="1:2">
+      <c r="A31" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" ht="33.6" spans="1:2">
+      <c r="A32" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" ht="33.6" spans="1:2">
+      <c r="A35" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" ht="33.6" spans="1:2">
+      <c r="A36" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" ht="33.6" spans="1:2">
+      <c r="A37" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" ht="33.6" spans="1:2">
+      <c r="A41" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" ht="33.6" spans="1:2">
+      <c r="A42" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" ht="33.6" spans="1:2">
+      <c r="A43" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" ht="33.6" spans="1:2">
+      <c r="A44" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" ht="33.6" spans="1:2">
+      <c r="A45" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" ht="67.2" spans="1:2">
+      <c r="A46" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="48" ht="33.6" spans="1:2">
+      <c r="A48" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" ht="33.6" spans="1:2">
+      <c r="A49" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="50" ht="33.6" spans="1:2">
+      <c r="A50" s="14" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="12" ht="43.2" spans="1:2">
-      <c r="A12" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" ht="28.8" spans="1:2">
-      <c r="A13" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" ht="43.2" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" ht="28.8" spans="1:2">
-      <c r="A18" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" ht="28.8" spans="1:2">
-      <c r="A20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" ht="28.8" spans="1:2">
-      <c r="A21" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="22" ht="28.8" spans="1:2">
-      <c r="A22" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24" ht="28.8" spans="1:2">
-      <c r="A24" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="B50" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" ht="84" spans="1:2">
+      <c r="A51" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" ht="50.4" spans="1:2">
+      <c r="A53" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54" ht="33.6" spans="1:2">
+      <c r="A54" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" ht="33.6" spans="1:2">
+      <c r="A55" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" ht="50.4" spans="1:2">
+      <c r="A59" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="62" ht="33.6" spans="1:2">
+      <c r="A62" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" ht="33.6" spans="1:2">
+      <c r="A63" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" ht="50.4" spans="1:2">
+      <c r="A64" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" ht="67.2" spans="1:2">
+      <c r="A65" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="66" ht="50.4" spans="1:2">
+      <c r="A66" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" ht="33.6" spans="1:2">
+      <c r="A67" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" ht="33.6" spans="1:2">
+      <c r="A68" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69" ht="50.4" spans="1:2">
+      <c r="A69" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="70" ht="33.6" spans="1:2">
+      <c r="A70" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" ht="33.6" spans="1:2">
+      <c r="A71" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72" ht="67.2" spans="1:2">
+      <c r="A72" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="73" ht="33.6" spans="1:2">
+      <c r="A73" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="74" ht="33.6" spans="1:2">
+      <c r="A74" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="75" ht="33.6" spans="1:2">
+      <c r="A75" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" ht="33.6" spans="1:2">
+      <c r="A76" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" ht="33.6" spans="1:2">
+      <c r="A77" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="78" ht="33.6" spans="1:2">
+      <c r="A78" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" ht="50.4" spans="1:2">
+      <c r="A79" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="80" ht="33.6" spans="1:2">
+      <c r="A80" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="81" ht="84" spans="1:2">
+      <c r="A81" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="83" ht="67.2" spans="1:2">
+      <c r="A83" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="84" ht="33.6" spans="1:2">
+      <c r="A84" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="85" ht="33.6" spans="1:2">
+      <c r="A85" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="87" ht="50.4" spans="1:2">
+      <c r="A87" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" ht="33.6" spans="1:2">
+      <c r="A89" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="90" ht="50.4" spans="1:2">
+      <c r="A90" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="92" ht="33.6" spans="1:2">
+      <c r="A92" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="93" ht="33.6" spans="1:2">
+      <c r="A93" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="94" ht="33.6" spans="1:2">
+      <c r="A94" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="97" ht="33.6" spans="1:2">
+      <c r="A97" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="100" ht="50.4" spans="1:2">
+      <c r="A100" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="101" ht="84" spans="1:2">
+      <c r="A101" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="102" ht="84" spans="1:2">
+      <c r="A102" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="103" ht="33.6" spans="1:2">
+      <c r="A103" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="105" ht="33.6" spans="1:2">
+      <c r="A105" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="107" ht="33.6" spans="1:2">
+      <c r="A107" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="108" ht="33.6" spans="1:2">
+      <c r="A108" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="109" ht="33.6" spans="1:2">
+      <c r="A109" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="110" ht="50.4" spans="1:2">
+      <c r="A110" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="111" ht="100.8" spans="1:2">
+      <c r="A111" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="112" ht="33.6" spans="1:2">
+      <c r="A112" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="113" ht="151.2" spans="1:2">
+      <c r="A113" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="114" ht="33.6" spans="1:2">
+      <c r="A114" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" ht="84" spans="1:2">
+      <c r="A115" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="118" ht="33.6" spans="1:2">
+      <c r="A118" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="119" ht="33.6" spans="1:2">
+      <c r="A119" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="121" ht="50.4" spans="1:2">
+      <c r="A121" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="122" ht="33.6" spans="1:2">
+      <c r="A122" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="123" ht="33.6" spans="1:2">
+      <c r="A123" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="124" ht="67.2" spans="1:2">
+      <c r="A124" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="126" ht="33.6" spans="1:2">
+      <c r="A126" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="128" ht="84" spans="1:2">
+      <c r="A128" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="129" ht="33.6" spans="1:2">
+      <c r="A129" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="130" ht="33.6" spans="1:2">
+      <c r="A130" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="131" ht="33.6" spans="1:2">
+      <c r="A131" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="132" ht="134.4" spans="1:2">
+      <c r="A132" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="133" ht="50.4" spans="1:2">
+      <c r="A133" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="134" ht="33.6" spans="1:2">
+      <c r="A134" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="135" ht="33.6" spans="1:2">
+      <c r="A135" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="136" ht="50.4" spans="1:2">
+      <c r="A136" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="137" ht="33.6" spans="1:2">
+      <c r="A137" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="138" ht="33.6" spans="1:2">
+      <c r="A138" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="139" ht="67.2" spans="1:2">
+      <c r="A139" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="140" ht="67.2" spans="1:2">
+      <c r="A140" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="141" ht="33.6" spans="1:2">
+      <c r="A141" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="142" ht="50.4" spans="1:2">
+      <c r="A142" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="143" ht="33.6" spans="1:2">
+      <c r="A143" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="146" ht="33.6" spans="1:2">
+      <c r="A146" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="149" ht="33.6" spans="1:2">
+      <c r="A149" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="151" ht="33.6" spans="1:2">
+      <c r="A151" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="153" ht="33.6" spans="1:2">
+      <c r="A153" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="8" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="B160" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" ht="28.8" spans="1:2">
-      <c r="A34" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" spans="1:2">
-      <c r="A35" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="36" ht="28.8" spans="1:2">
-      <c r="A36" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="41" ht="28.8" spans="1:2">
-      <c r="A41" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="42" ht="28.8" spans="1:2">
-      <c r="A42" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="44" ht="28.8" spans="1:2">
-      <c r="A44" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="45" ht="28.8" spans="1:2">
-      <c r="A45" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47" ht="28.8" spans="1:2">
-      <c r="A47" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="7" t="s">
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="162" ht="50.4" spans="1:2">
+      <c r="A162" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="163" ht="33.6" spans="1:2">
+      <c r="A163" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="164" ht="33.6" spans="1:2">
+      <c r="A164" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="166" ht="50.4" spans="1:2">
+      <c r="A166" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="167" ht="33.6" spans="1:2">
+      <c r="A167" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="169" ht="33.6" spans="1:2">
+      <c r="A169" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="171" ht="33.6" spans="1:2">
+      <c r="A171" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" ht="50.4" spans="1:2">
+      <c r="A174" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="176" ht="33.6" spans="1:2">
+      <c r="A176" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="177" ht="50.4" spans="1:2">
+      <c r="A177" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="178" ht="33.6" spans="1:2">
+      <c r="A178" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="180" ht="33.6" spans="1:2">
+      <c r="A180" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="182" ht="33.6" spans="1:2">
+      <c r="A182" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="183" ht="33.6" spans="1:2">
+      <c r="A183" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="184" ht="67.2" spans="1:2">
+      <c r="A184" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="185" ht="84" spans="1:2">
+      <c r="A185" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="187" ht="50.4" spans="1:2">
+      <c r="A187" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="188" ht="33.6" spans="1:2">
+      <c r="A188" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="190" ht="33.6" spans="1:2">
+      <c r="A190" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="191" ht="33.6" spans="1:2">
+      <c r="A191" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="192" ht="33.6" spans="1:2">
+      <c r="A192" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="193" ht="84" spans="1:2">
+      <c r="A193" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="194" ht="50.4" spans="1:2">
+      <c r="A194" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="195" ht="33.6" spans="1:2">
+      <c r="A195" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="196" ht="33.6" spans="1:2">
+      <c r="A196" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="197" ht="33.6" spans="1:2">
+      <c r="A197" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="200" ht="33.6" spans="1:2">
+      <c r="A200" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="201" ht="84" spans="1:2">
+      <c r="A201" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="202" ht="33.6" spans="1:2">
+      <c r="A202" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="203" ht="33.6" spans="1:2">
+      <c r="A203" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="204" ht="14.4" spans="1:2">
+      <c r="A204" t="s">
+        <v>772</v>
+      </c>
+      <c r="B204" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="205" ht="33.6" spans="1:2">
+      <c r="A205" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="206" ht="33.6" spans="1:2">
+      <c r="A206" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="208" ht="14.4" spans="1:2">
+      <c r="A208" t="s">
+        <v>780</v>
+      </c>
+      <c r="B208" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="209" ht="33.6" spans="1:2">
+      <c r="A209" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="210" ht="67.2" spans="1:2">
+      <c r="A210" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="211" ht="67.2" spans="1:2">
+      <c r="A211" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="212" ht="33.6" spans="1:2">
+      <c r="A212" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="213" ht="84" spans="1:2">
+      <c r="A213" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="214" ht="50.4" spans="1:2">
+      <c r="A214" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="216" ht="67.2" spans="1:2">
+      <c r="A216" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="217" ht="33.6" spans="1:2">
+      <c r="A217" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="218" ht="50.4" spans="1:2">
+      <c r="A218" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="220" ht="33.6" spans="1:2">
+      <c r="A220" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="221" ht="33.6" spans="1:2">
+      <c r="A221" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="222" ht="33.6" spans="1:2">
+      <c r="A222" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="224" ht="33.6" spans="1:2">
+      <c r="A224" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="225" ht="67.2" spans="1:2">
+      <c r="A225" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="226" ht="84" spans="1:2">
+      <c r="A226" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="227" ht="33.6" spans="1:2">
+      <c r="A227" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="228" ht="33.6" spans="1:2">
+      <c r="A228" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="229" ht="67.2" spans="1:2">
+      <c r="A229" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="230" ht="50.4" spans="1:2">
+      <c r="A230" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="231" ht="33.6" spans="1:2">
+      <c r="A231" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="233" ht="33.6" spans="1:2">
+      <c r="A233" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="14"/>
+      <c r="B237" s="14"/>
+    </row>
+    <row r="238" ht="100.8" spans="1:2">
+      <c r="A238" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="239" ht="151.2" spans="1:2">
+      <c r="A239" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="240" ht="201.6" spans="1:2">
+      <c r="A240" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="241" ht="84" spans="1:2">
+      <c r="A241" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="242" ht="84" spans="1:2">
+      <c r="A242" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="243" ht="67.2" spans="1:2">
+      <c r="A243" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="244" ht="84" spans="1:2">
+      <c r="A244" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="B244" s="14" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="245" ht="84" spans="1:2">
+      <c r="A245" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="246" ht="100.8" spans="1:2">
+      <c r="A246" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="B246" s="14" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="247" ht="168" spans="1:2">
+      <c r="A247" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="248" ht="117.6" spans="1:2">
+      <c r="A248" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="249" ht="134.4" spans="1:2">
+      <c r="A249" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="250" ht="117.6" spans="1:2">
+      <c r="A250" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="B250" s="14" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="251" ht="235.2" spans="1:2">
+      <c r="A251" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="252" ht="134.4" spans="1:2">
+      <c r="A252" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="253" ht="184.8" spans="1:2">
+      <c r="A253" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="B253" s="14" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="254" ht="100.8" spans="1:2">
+      <c r="A254" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="B254" s="14" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="255" ht="100.8" spans="1:2">
+      <c r="A255" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="256" ht="235.2" spans="1:2">
+      <c r="A256" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B256" s="14" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="257" ht="201.6" spans="1:2">
+      <c r="A257" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="258" ht="134.4" spans="1:2">
+      <c r="A258" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="B258" s="14" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="259" ht="100.8" spans="1:2">
+      <c r="A259" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="260" ht="151.2" spans="1:2">
+      <c r="A260" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="B260" s="14" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="261" ht="117.6" spans="1:2">
+      <c r="A261" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="B261" s="14" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="262" ht="67.2" spans="1:2">
+      <c r="A262" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="B262" s="14" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="263" ht="151.2" spans="1:2">
+      <c r="A263" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="264" ht="100.8" spans="1:2">
+      <c r="A264" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="265" ht="268.8" spans="1:2">
+      <c r="A265" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="266" ht="134.4" spans="1:2">
+      <c r="A266" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="B266" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="267" ht="268.8" spans="1:2">
+      <c r="A267" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="268" ht="50.4" spans="1:2">
+      <c r="A268" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="269" ht="117.6" spans="1:2">
+      <c r="A269" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="270" ht="184.8" spans="1:2">
+      <c r="A270" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="271" ht="100.8" spans="1:2">
+      <c r="A271" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="272" ht="84" spans="1:2">
+      <c r="A272" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="B272" s="14" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="273" ht="134.4" spans="1:2">
+      <c r="A273" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="B273" s="14" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="274" ht="184.8" spans="1:2">
+      <c r="A274" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B274" s="14" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="275" ht="84" spans="1:2">
+      <c r="A275" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="50" ht="72" spans="1:2">
-      <c r="A50" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="52" ht="28.8" spans="1:2">
-      <c r="A52" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="53" ht="28.8" spans="1:2">
-      <c r="A53" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="54" ht="28.8" spans="1:2">
-      <c r="A54" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="58" ht="28.8" spans="1:2">
-      <c r="A58" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="61" ht="28.8" spans="1:2">
-      <c r="A61" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="62" ht="28.8" spans="1:2">
-      <c r="A62" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="63" ht="28.8" spans="1:2">
-      <c r="A63" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="64" ht="28.8" spans="1:2">
-      <c r="A64" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="65" ht="28.8" spans="1:2">
-      <c r="A65" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>461</v>
-      </c>
-      <c r="B66" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="67" ht="28.8" spans="1:2">
-      <c r="A67" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="70" ht="57.6" spans="1:2">
-      <c r="A70" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="72" ht="28.8" spans="1:2">
-      <c r="A72" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="74" ht="28.8" spans="1:2">
-      <c r="A74" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="76" ht="28.8" spans="1:2">
-      <c r="A76" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="77" ht="43.2" spans="1:2">
-      <c r="A77" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="79" ht="57.6" spans="1:2">
-      <c r="A79" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="81" ht="28.8" spans="1:2">
-      <c r="A81" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="82" ht="28.8" spans="1:2">
-      <c r="A82" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="85" ht="28.8" spans="1:2">
-      <c r="A85" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="88" ht="28.8" spans="1:2">
-      <c r="A88" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="91" ht="28.8" spans="1:2">
-      <c r="A91" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="98" ht="43.2" spans="1:2">
-      <c r="A98" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="99" ht="57.6" spans="1:2">
-      <c r="A99" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="100" ht="43.2" spans="1:2">
-      <c r="A100" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="101" ht="28.8" spans="1:2">
-      <c r="A101" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="106" ht="28.8" spans="1:2">
-      <c r="A106" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="108" ht="43.2" spans="1:2">
-      <c r="A108" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="109" ht="57.6" spans="1:2">
-      <c r="A109" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="110" ht="28.8" spans="1:2">
-      <c r="A110" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="111" ht="115.2" spans="1:2">
-      <c r="A111" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="112" ht="72" spans="1:2">
-      <c r="A112" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="116" ht="28.8" spans="1:2">
-      <c r="A116" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="118" ht="28.8" spans="1:2">
-      <c r="A118" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="120" ht="28.8" spans="1:2">
-      <c r="A120" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="121" ht="43.2" spans="1:2">
-      <c r="A121" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="125" ht="43.2" spans="1:2">
-      <c r="A125" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="127" ht="28.8" spans="1:2">
-      <c r="A127" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="129" ht="115.2" spans="1:2">
-      <c r="A129" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="130" ht="43.2" spans="1:2">
-      <c r="A130" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="131" ht="28.8" spans="1:2">
-      <c r="A131" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="132" ht="28.8" spans="1:2">
-      <c r="A132" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="133" ht="43.2" spans="1:2">
-      <c r="A133" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="134" ht="28.8" spans="1:2">
-      <c r="A134" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="135" ht="28.8" spans="1:2">
-      <c r="A135" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="136" ht="43.2" spans="1:2">
-      <c r="A136" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="137" ht="43.2" spans="1:2">
-      <c r="A137" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="138" ht="28.8" spans="1:2">
-      <c r="A138" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="139" ht="43.2" spans="1:2">
-      <c r="A139" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="140" ht="28.8" spans="1:2">
-      <c r="A140" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="233" ht="72" spans="1:2">
-      <c r="A233" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="234" ht="115.2" spans="1:2">
-      <c r="A234" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="235" ht="172.8" spans="1:2">
-      <c r="A235" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="236" ht="72" spans="1:2">
-      <c r="A236" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="237" ht="72" spans="1:2">
-      <c r="A237" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="238" ht="43.2" spans="1:2">
-      <c r="A238" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="239" ht="72" spans="1:2">
-      <c r="A239" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="240" ht="72" spans="1:2">
-      <c r="A240" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="241" ht="72" spans="1:2">
-      <c r="A241" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="242" ht="129.6" spans="1:2">
-      <c r="A242" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="243" ht="86.4" spans="1:2">
-      <c r="A243" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="244" ht="100.8" spans="1:2">
-      <c r="A244" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="245" ht="86.4" spans="1:2">
-      <c r="A245" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="B245" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="246" ht="187.2" spans="1:2">
-      <c r="A246" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="247" ht="100.8" spans="1:2">
-      <c r="A247" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="248" ht="144" spans="1:2">
-      <c r="A248" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="249" ht="72" spans="1:2">
-      <c r="A249" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="250" ht="86.4" spans="1:2">
-      <c r="A250" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="B250" s="7" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="251" ht="172.8" spans="1:2">
-      <c r="A251" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="252" ht="158.4" spans="1:2">
-      <c r="A252" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="253" ht="100.8" spans="1:2">
-      <c r="A253" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="254" ht="72" spans="1:2">
-      <c r="A254" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="255" ht="115.2" spans="1:2">
-      <c r="A255" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="256" ht="86.4" spans="1:2">
-      <c r="A256" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="257" ht="43.2" spans="1:2">
-      <c r="A257" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="258" ht="115.2" spans="1:2">
-      <c r="A258" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="259" ht="86.4" spans="1:2">
-      <c r="A259" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="260" ht="201.6" spans="1:2">
-      <c r="A260" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="261" ht="100.8" spans="1:2">
-      <c r="A261" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="262" ht="201.6" spans="1:2">
-      <c r="A262" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="B262" s="7" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="263" ht="28.8" spans="1:2">
-      <c r="A263" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="264" ht="86.4" spans="1:2">
-      <c r="A264" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="265" ht="144" spans="1:2">
-      <c r="A265" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="266" ht="72" spans="1:2">
-      <c r="A266" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B266" s="7" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="267" ht="57.6" spans="1:2">
-      <c r="A267" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="268" ht="100.8" spans="1:2">
-      <c r="A268" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="269" ht="129.6" spans="1:2">
-      <c r="A269" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="270" ht="57.6" spans="1:2">
-      <c r="A270" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="271" ht="187.2" spans="1:2">
-      <c r="A271" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="272" ht="115.2" spans="1:2">
-      <c r="A272" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="273" ht="86.4" spans="1:2">
-      <c r="A273" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="274" ht="28.8" spans="1:2">
-      <c r="A274" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="275" ht="100.8" spans="1:2">
-      <c r="A275" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="276" ht="57.6" spans="1:2">
-      <c r="A276" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="277" ht="288" spans="1:2">
-      <c r="A277" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>694</v>
+      <c r="B275" s="14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="276" ht="252" spans="1:2">
+      <c r="A276" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="277" ht="151.2" spans="1:2">
+      <c r="A277" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="278" ht="117.6" spans="1:2">
+      <c r="A278" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="B278" s="14" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="279" ht="67.2" spans="1:2">
+      <c r="A279" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="B279" s="14" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="280" ht="134.4" spans="1:2">
+      <c r="A280" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="B280" s="14" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="281" ht="84" spans="1:2">
+      <c r="A281" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B281" s="14" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="282" ht="369.6" spans="1:2">
+      <c r="A282" s="14" t="s">
+        <v>920</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -6773,91 +8764,347 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A15"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="47.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="47.3333333333333" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="8.88888888888889" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="86.4" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="2" ht="115.2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="3" ht="86.4" spans="1:1">
-      <c r="A3" s="7" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="4" ht="129.6" spans="1:1">
-      <c r="A4" s="7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="5" ht="129.6" spans="1:1">
-      <c r="A5" s="7" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="6" ht="187.2" spans="1:1">
-      <c r="A6" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="7" ht="187.2" spans="1:1">
-      <c r="A7" s="7" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="8" ht="216" spans="1:1">
-      <c r="A8" s="7" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="9" ht="187.2" spans="1:1">
-      <c r="A9" s="7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="10" ht="244.8" spans="1:1">
-      <c r="A10" s="8" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="11" ht="187.2" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="12" ht="144" spans="1:1">
-      <c r="A12" s="7" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="13" ht="100.8" spans="1:1">
-      <c r="A13" s="7" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="14" ht="201.6" spans="1:1">
-      <c r="A14" s="7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="15" ht="187.2" spans="1:1">
-      <c r="A15" s="7" t="s">
-        <v>709</v>
+    <row r="1" ht="117.6" spans="1:1">
+      <c r="A1" s="14" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" ht="134.4" spans="1:1">
+      <c r="A2" s="14" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="3" ht="100.8" spans="1:1">
+      <c r="A3" s="14" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" ht="151.2" spans="1:1">
+      <c r="A4" s="14" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="5" ht="168" spans="1:1">
+      <c r="A5" s="14" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="6" ht="218.4" spans="1:1">
+      <c r="A6" s="14" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="7" ht="252" spans="1:1">
+      <c r="A7" s="14" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="8" ht="302.4" spans="1:1">
+      <c r="A8" s="14" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="9" ht="252" spans="1:1">
+      <c r="A9" s="14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="10" ht="319.2" spans="1:1">
+      <c r="A10" s="14" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="11" ht="218.4" spans="1:1">
+      <c r="A11" s="14" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="12" ht="201.6" spans="1:1">
+      <c r="A12" s="14" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="13" ht="117.6" spans="1:1">
+      <c r="A13" s="14" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="14" ht="252" spans="1:1">
+      <c r="A14" s="14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="15" ht="252" spans="1:1">
+      <c r="A15" s="14" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="16" s="11" customFormat="1" ht="134.4" spans="1:1">
+      <c r="A16" s="15" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="17" s="11" customFormat="1" ht="218.4" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="18" s="11" customFormat="1" ht="184.8" spans="1:1">
+      <c r="A18" s="15" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="19" s="12" customFormat="1" ht="134.4" spans="1:1">
+      <c r="A19" s="16" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="1" ht="151.2" spans="1:1">
+      <c r="A20" s="16" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="21" s="12" customFormat="1" ht="117.6" spans="1:1">
+      <c r="A21" s="16" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="22" s="12" customFormat="1" ht="134.4" spans="1:1">
+      <c r="A22" s="16" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="23" ht="100.8" spans="1:1">
+      <c r="A23" s="15" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="24" ht="285.6" spans="1:1">
+      <c r="A24" s="15" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="25" ht="134.4" spans="1:1">
+      <c r="A25" s="15" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="26" ht="117.6" spans="1:1">
+      <c r="A26" s="16" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="27" ht="151.2" spans="1:1">
+      <c r="A27" s="16" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="28" ht="184.8" spans="1:1">
+      <c r="A28" s="16" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="29" ht="184.8" spans="1:1">
+      <c r="A29" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="30" ht="168" spans="1:1">
+      <c r="A30" s="15" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="31" ht="168" spans="1:1">
+      <c r="A31" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="32" ht="184.8" spans="1:1">
+      <c r="A32" s="15" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="33" ht="151.2" spans="1:1">
+      <c r="A33" s="15" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="34" ht="201.6" spans="1:1">
+      <c r="A34" s="12" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="35" ht="117.6" spans="1:1">
+      <c r="A35" s="12" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="36" ht="168" spans="1:1">
+      <c r="A36" s="12" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="37" ht="168" spans="1:1">
+      <c r="A37" s="11" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="38" ht="168" spans="1:1">
+      <c r="A38" s="11" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="39" ht="184.8" spans="1:1">
+      <c r="A39" s="11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="40" ht="151.2" spans="1:1">
+      <c r="A40" s="11" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="41" ht="117.6" spans="1:1">
+      <c r="A41" s="12" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="42" ht="117.6" spans="1:1">
+      <c r="A42" s="12" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="43" ht="117.6" spans="1:1">
+      <c r="A43" s="12" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="44" ht="201.6" spans="1:1">
+      <c r="A44" s="12" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="45" ht="151.2" spans="1:1">
+      <c r="A45" s="16" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="46" ht="117.6" spans="1:1">
+      <c r="A46" s="11" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="47" ht="184.8" spans="1:1">
+      <c r="A47" s="11" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="48" ht="151.2" spans="1:1">
+      <c r="A48" s="11" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="49" ht="201.6" spans="1:1">
+      <c r="A49" s="11" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="50" ht="252" spans="1:1">
+      <c r="A50" s="12" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="51" ht="151.2" spans="1:1">
+      <c r="A51" s="12" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="52" ht="151.2" spans="1:1">
+      <c r="A52" s="12" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="53" ht="151.2" spans="1:1">
+      <c r="A53" s="12" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="54" ht="235.2" spans="1:1">
+      <c r="A54" s="11" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="55" ht="151.2" spans="1:1">
+      <c r="A55" s="11" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="56" ht="151.2" spans="1:1">
+      <c r="A56" s="11" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="57" ht="100.8" spans="1:1">
+      <c r="A57" s="12" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="58" ht="67.2" spans="1:1">
+      <c r="A58" s="12" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="59" ht="168" spans="1:1">
+      <c r="A59" s="12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="60" ht="100.8" spans="1:1">
+      <c r="A60" s="12" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="61" ht="134.4" spans="1:1">
+      <c r="A61" s="16" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="62" ht="117.6" spans="1:1">
+      <c r="A62" s="16" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="63" ht="134.4" spans="1:1">
+      <c r="A63" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="64" ht="151.2" spans="1:1">
+      <c r="A64" s="11" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="65" ht="117.6" spans="1:1">
+      <c r="A65" s="11" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="66" ht="184.8" spans="1:1">
+      <c r="A66" s="11" t="s">
+        <v>987</v>
       </c>
     </row>
   </sheetData>
@@ -6868,186 +9115,279 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.2222222222222" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="15.6" spans="1:4">
+    <row r="1" ht="34" customHeight="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+        <v>992</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>715</v>
+      <c r="A3" s="5" t="s">
+        <v>824</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>716</v>
+        <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="B4" t="s">
-        <v>718</v>
+        <v>994</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>719</v>
+        <v>996</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>720</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="8" ht="43.2" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="B8" t="s">
-        <v>723</v>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="8" ht="50.4" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>724</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>725</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B11" s="6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" ht="67.2" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:1">
-      <c r="A19" s="6" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:1">
-      <c r="A20" s="6" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="21" ht="15.6" spans="1:1">
-      <c r="A21" s="6" t="s">
-        <v>731</v>
+        <v>1013</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="23" ht="43.2" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B25" t="s">
-        <v>737</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B27" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>741</v>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="27" ht="67.2" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="28" ht="33.6" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="B29" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1024</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B30" t="s">
-        <v>745</v>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/自考/00096-外刊经贸知识选读/00096外刊经贸知识选读.xlsx
+++ b/自考/00096-外刊经贸知识选读/00096外刊经贸知识选读.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="7115" windowHeight="9155" tabRatio="915" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="11064" windowHeight="9720" tabRatio="915" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="课程知识框架" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1042">
   <si>
     <t>课程知识框架</t>
   </si>
@@ -27,6 +27,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">China's Absorption(吸引) of </t>
     </r>
     <r>
@@ -60,6 +67,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Newly-Emerging(新兴的)</t>
     </r>
     <r>
@@ -90,6 +104,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Reports on Commodities Exchange in </t>
     </r>
     <r>
@@ -738,6 +759,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>n.（情绪或精力的）发泄方式，发泄途径；排出口；</t>
     </r>
     <r>
@@ -979,6 +1007,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>翱翔，</t>
     </r>
     <r>
@@ -1151,6 +1186,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v.开始行动，开展；&lt;正式&gt;继续做（或从事、进行）
 n.</t>
     </r>
@@ -1181,6 +1223,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>n.货摊；马廐，牛棚；（房间内的）小隔间；（发动机的）熄火，（车辆的）抛锚，（轮船的）停泊；&lt;美&gt;（机动车停车场的）车位
 v.（使）熄火，抛锚；故意拖延（以赢得时间）；拖住（某人）；</t>
     </r>
@@ -2378,6 +2427,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>拆开，拆卸；</t>
     </r>
     <r>
@@ -3328,6 +3384,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">There are no official statistics covering </t>
     </r>
     <r>
@@ -3736,6 +3799,12 @@
   </si>
   <si>
     <t>加快，提高</t>
+  </si>
+  <si>
+    <t>soar to / rocket to / surge to</t>
+  </si>
+  <si>
+    <t>激增到，猛增到</t>
   </si>
   <si>
     <t>减少</t>
@@ -4467,7 +4536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4486,9 +4555,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4497,18 +4563,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4522,16 +4576,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4892,92 +4940,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="35.5555555555556" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="35.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="33.6" spans="1:1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="50.4" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="33.6" spans="1:1">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="33.6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="33.6" spans="1:1">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="50.4" spans="1:1">
-      <c r="A9" s="14" t="s">
+    <row r="9" ht="33.6" spans="1:1">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" ht="33.6" spans="1:1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="50.4" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="33.6" spans="1:1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5001,1005 +5049,1005 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.8888888888889" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.8888888888889" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="15.8888888888889" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" ht="50.4" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" ht="50.4" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" ht="100.8" spans="1:2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" ht="50.4" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" ht="67.2" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" ht="33.6" spans="1:2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" ht="50.4" spans="1:2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" ht="33.6" spans="1:2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" ht="50.4" spans="1:2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" ht="50.4" spans="1:2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" ht="50.4" spans="1:2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" ht="50.4" spans="1:2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" ht="67.2" spans="1:2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="45" ht="50.4" spans="1:2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="46" ht="33.6" spans="1:2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="47" ht="50.4" spans="1:2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" ht="84" spans="1:2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" ht="33.6" spans="1:2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" ht="50.4" spans="1:2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="51" ht="67.2" spans="1:2">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="52" ht="50.4" spans="1:2">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" ht="33.6" spans="1:2">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="54" ht="33.6" spans="1:2">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55" ht="50.4" spans="1:2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="7" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" ht="33.6" spans="1:2">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" ht="33.6" spans="1:2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59" ht="50.4" spans="1:2">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="61" ht="67.2" spans="1:2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="62" ht="33.6" spans="1:2">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="63" ht="50.4" spans="1:2">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="64" ht="50.4" spans="1:2">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="7" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="65" ht="50.4" spans="1:2">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="66" ht="33.6" spans="1:2">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67" ht="33.6" spans="1:2">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="68" ht="33.6" spans="1:2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="69" ht="50.4" spans="1:2">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="70" ht="33.6" spans="1:2">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="71" ht="33.6" spans="1:2">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" ht="67.2" spans="1:2">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" ht="50.4" spans="1:2">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="74" ht="33.6" spans="1:2">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="75" ht="50.4" spans="1:2">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="76" ht="33.6" spans="1:2">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="77" ht="117.6" spans="1:2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="78" ht="33.6" spans="1:2">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="79" ht="50.4" spans="1:2">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="80" ht="84" spans="1:2">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="81" ht="33.6" spans="1:2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="82" ht="50.4" spans="1:2">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="83" ht="50.4" spans="1:2">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="7" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="84" ht="33.6" spans="1:2">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="85" ht="33.6" spans="1:2">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="86" ht="50.4" spans="1:2">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="87" ht="33.6" spans="1:2">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="88" ht="50.4" spans="1:2">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="89" ht="33.6" spans="1:2">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="90" ht="50.4" spans="1:2">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="7" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="91" ht="33.6" spans="1:2">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="92" ht="33.6" spans="1:2">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="93" ht="67.2" spans="1:2">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="94" ht="33.6" spans="1:2">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="95" ht="84" spans="1:2">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="96" ht="33.6" spans="1:2">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97" ht="33.6" spans="1:2">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="98" ht="67.2" spans="1:2">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="99" ht="33.6" spans="1:2">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="100" ht="67.2" spans="1:2">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="101" ht="33.6" spans="1:2">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="102" ht="33.6" spans="1:2">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="103" ht="33.6" spans="1:2">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="104" ht="50.4" spans="1:2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="7" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="105" ht="33.6" spans="1:2">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="7" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="106" ht="33.6" spans="1:2">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="107" ht="50.4" spans="1:2">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="108" ht="84" spans="1:2">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="109" ht="84" spans="1:2">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="7" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="110" ht="50.4" spans="1:2">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="7" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="111" ht="50.4" spans="1:2">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="112" ht="33.6" spans="1:2">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="7" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="113" ht="50.4" spans="1:2">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="114" ht="33.6" spans="1:2">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="115" ht="33.6" spans="1:2">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="7" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="116" ht="33.6" spans="1:2">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="7" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="117" ht="33.6" spans="1:2">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="7" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="118" ht="33.6" spans="1:2">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="7" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="119" ht="33.6" spans="1:2">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="120" ht="33.6" spans="1:2">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="121" ht="33.6" spans="1:2">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="122" ht="33.6" spans="1:2">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="123" ht="50.4" spans="1:2">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="7" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="124" ht="67.2" spans="1:2">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="14" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="125" ht="33.6" spans="1:2">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="7" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6012,90 +6060,90 @@
       </c>
     </row>
     <row r="127" ht="33.6" spans="1:2">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="7" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="128" ht="84" spans="1:2">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="129" ht="50.4" spans="1:2">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="130" ht="33.6" spans="1:2">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="131" ht="50.4" spans="1:2">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="132" ht="33.6" spans="1:2">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="133" ht="50.4" spans="1:2">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="134" ht="50.4" spans="1:2">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="135" ht="33.6" spans="1:2">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="136" ht="67.2" spans="1:2">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="137" ht="84" spans="1:2">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="7" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6108,194 +6156,194 @@
       </c>
     </row>
     <row r="139" ht="33.6" spans="1:2">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="7" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="140" ht="151.2" spans="1:2">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="141" ht="33.6" spans="1:2">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="142" ht="33.6" spans="1:2">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="7" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="143" ht="100.8" spans="1:2">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="7" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="144" ht="218.4" spans="1:2">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="7" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="146" ht="50.4" spans="1:2">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="7" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="147" ht="67.2" spans="1:2">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="7" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="148" ht="33.6" spans="1:2">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="7" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="149" ht="84" spans="1:2">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="7" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="151" ht="50.4" spans="1:2">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="152" ht="67.2" spans="1:2">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="7" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="153" ht="50.4" spans="1:2">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="7" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="154" ht="117.6" spans="1:2">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="7" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="155" ht="33.6" spans="1:2">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="7" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="156" ht="67.2" spans="1:2">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="7" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="157" ht="50.4" spans="1:2">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="158" ht="50.4" spans="1:2">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="7" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="159" ht="33.6" spans="1:2">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="160" ht="33.6" spans="1:2">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="161" ht="33.6" spans="1:2">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="162" ht="33.6" spans="1:2">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="7" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6303,7 +6351,7 @@
       <c r="A163" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="7" t="s">
         <v>337</v>
       </c>
       <c r="C163" s="3"/>
@@ -6311,90 +6359,90 @@
       <c r="E163" s="3"/>
     </row>
     <row r="164" ht="33.6" spans="1:2">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="165" ht="50.4" spans="1:2">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="166" ht="33.6" spans="1:2">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="167" ht="33.6" spans="1:2">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="168" ht="33.6" spans="1:2">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="169" ht="50.4" spans="1:2">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="170" ht="33.6" spans="1:2">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="171" ht="100.8" spans="1:2">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="172" ht="50.4" spans="1:2">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="173" ht="100.8" spans="1:2">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="174" ht="50.4" spans="1:2">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6402,79 +6450,79 @@
       <c r="A175" t="s">
         <v>360</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="176" ht="33.6" spans="1:2">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="177" ht="50.4" spans="1:2">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="178" ht="50.4" spans="1:2">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="179" ht="50.4" spans="1:2">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="7" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="180" ht="50.4" spans="1:2">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="181" ht="33.6" spans="1:2">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="182" ht="67.2" spans="1:2">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="183" ht="33.6" spans="1:2">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="7" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="184" ht="67.2" spans="1:2">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>379</v>
       </c>
     </row>
@@ -6498,792 +6546,792 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.4444444444444" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.8888888888889" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="17.4444444444444" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="38" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="7" customFormat="1" ht="38" customHeight="1" spans="1:2">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="33.6" spans="1:2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" ht="33.6" spans="1:2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="4" ht="33.6" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="5" ht="50.4" spans="1:2">
-      <c r="A5" s="14" t="s">
+    <row r="5" ht="33.6" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="6" ht="50.4" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="7" ht="50.4" spans="1:2">
-      <c r="A7" s="14" t="s">
+    <row r="7" ht="33.6" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="8" ht="33.6" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="9" ht="33.6" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="11" ht="67.2" spans="1:2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="7" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="12" ht="50.4" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="13" ht="50.4" spans="1:2">
-      <c r="A13" s="14" t="s">
+    <row r="13" ht="33.6" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="7" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="15" ht="50.4" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="7" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="16" ht="33.6" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="7" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="7" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="18" ht="33.6" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="19" ht="33.6" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="7" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="20" ht="33.6" spans="1:2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="21" ht="33.6" spans="1:2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22" ht="33.6" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="7" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="23" ht="50.4" spans="1:2">
-      <c r="A23" s="14" t="s">
+    <row r="23" ht="33.6" spans="1:2">
+      <c r="A23" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="7" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="7" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="25" ht="33.6" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="26" ht="33.6" spans="1:2">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="27" ht="33.6" spans="1:2">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="7" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="28" ht="33.6" spans="1:2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="29" ht="33.6" spans="1:2">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="7" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="7" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="31" ht="33.6" spans="1:2">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="7" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="32" ht="33.6" spans="1:2">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="35" ht="33.6" spans="1:2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="7" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="36" ht="33.6" spans="1:2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="7" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="37" ht="33.6" spans="1:2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="7" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="7" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="7" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="7" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="41" ht="33.6" spans="1:2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="7" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="42" ht="33.6" spans="1:2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="7" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="43" ht="33.6" spans="1:2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="7" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="44" ht="33.6" spans="1:2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="7" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="45" ht="33.6" spans="1:2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="7" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="46" ht="67.2" spans="1:2">
-      <c r="A46" s="14" t="s">
+    <row r="46" ht="50.4" spans="1:2">
+      <c r="A46" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="48" ht="33.6" spans="1:2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="7" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="49" ht="33.6" spans="1:2">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="50" ht="33.6" spans="1:2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="7" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="51" ht="84" spans="1:2">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="7" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="53" ht="50.4" spans="1:2">
-      <c r="A53" s="14" t="s">
+    <row r="53" ht="33.6" spans="1:2">
+      <c r="A53" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="54" ht="33.6" spans="1:2">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="7" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="55" ht="33.6" spans="1:2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="7" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="7" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="59" ht="50.4" spans="1:2">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="7" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="7" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="7" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="62" ht="33.6" spans="1:2">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="7" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="63" ht="33.6" spans="1:2">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="64" ht="50.4" spans="1:2">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="7" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="65" ht="67.2" spans="1:2">
-      <c r="A65" s="14" t="s">
+    <row r="65" ht="33.6" spans="1:2">
+      <c r="A65" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="7" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="66" ht="50.4" spans="1:2">
-      <c r="A66" s="14" t="s">
+    <row r="66" ht="33.6" spans="1:2">
+      <c r="A66" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="67" ht="33.6" spans="1:2">
-      <c r="A67" s="18" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="68" ht="33.6" spans="1:2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="69" ht="50.4" spans="1:2">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="7" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="70" ht="33.6" spans="1:2">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="71" ht="33.6" spans="1:2">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="7" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="72" ht="67.2" spans="1:2">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="7" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="73" ht="33.6" spans="1:2">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="7" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="74" ht="33.6" spans="1:2">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="7" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="75" ht="33.6" spans="1:2">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="76" ht="33.6" spans="1:2">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="7" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="77" ht="33.6" spans="1:2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="7" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="78" ht="33.6" spans="1:2">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="7" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="79" ht="50.4" spans="1:2">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="7" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="80" ht="33.6" spans="1:2">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="7" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="81" ht="84" spans="1:2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="7" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="7" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="83" ht="67.2" spans="1:2">
-      <c r="A83" s="14" t="s">
+    <row r="83" ht="50.4" spans="1:2">
+      <c r="A83" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="7" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="84" ht="33.6" spans="1:2">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="7" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="85" ht="33.6" spans="1:2">
-      <c r="A85" s="14" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="7" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="7" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="87" ht="50.4" spans="1:2">
-      <c r="A87" s="14" t="s">
+    <row r="87" ht="33.6" spans="1:2">
+      <c r="A87" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="7" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="7" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="89" ht="33.6" spans="1:2">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="7" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="90" ht="50.4" spans="1:2">
-      <c r="A90" s="14" t="s">
+    <row r="90" ht="33.6" spans="1:2">
+      <c r="A90" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="7" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="7" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="92" ht="33.6" spans="1:2">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="7" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="93" ht="33.6" spans="1:2">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="7" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="94" ht="33.6" spans="1:2">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="7" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="7" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="97" ht="33.6" spans="1:2">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="7" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="7" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7296,362 +7344,362 @@
       </c>
     </row>
     <row r="100" ht="50.4" spans="1:2">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="7" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="101" ht="84" spans="1:2">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="7" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="102" ht="84" spans="1:2">
-      <c r="A102" s="14" t="s">
+    <row r="102" ht="67.2" spans="1:2">
+      <c r="A102" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="103" ht="33.6" spans="1:2">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="7" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="105" ht="33.6" spans="1:2">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="7" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="7" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="107" ht="33.6" spans="1:2">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="7" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="108" ht="33.6" spans="1:2">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="7" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="109" ht="33.6" spans="1:2">
-      <c r="A109" s="14" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="7" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="110" ht="50.4" spans="1:2">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="7" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="111" ht="100.8" spans="1:2">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="7" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="112" ht="33.6" spans="1:2">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="7" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="113" ht="151.2" spans="1:2">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="114" ht="33.6" spans="1:2">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="7" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="115" ht="84" spans="1:2">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="7" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="7" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="118" ht="33.6" spans="1:2">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="7" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="119" ht="33.6" spans="1:2">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="B119" s="7" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="7" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="121" ht="50.4" spans="1:2">
-      <c r="A121" s="14" t="s">
+    <row r="121" ht="33.6" spans="1:2">
+      <c r="A121" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="7" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="122" ht="33.6" spans="1:2">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="7" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="123" ht="33.6" spans="1:2">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="7" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="124" ht="67.2" spans="1:2">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="7" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="7" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="126" ht="33.6" spans="1:2">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="7" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="7" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="128" ht="84" spans="1:2">
-      <c r="A128" s="14" t="s">
+    <row r="128" ht="67.2" spans="1:2">
+      <c r="A128" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="7" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="129" ht="33.6" spans="1:2">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="7" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="130" ht="33.6" spans="1:2">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="7" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="131" ht="33.6" spans="1:2">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="7" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="132" ht="134.4" spans="1:2">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="7" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="133" ht="50.4" spans="1:2">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="7" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="134" ht="33.6" spans="1:2">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="7" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="135" ht="33.6" spans="1:2">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="7" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="136" ht="50.4" spans="1:2">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="7" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="137" ht="33.6" spans="1:2">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="7" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="138" ht="33.6" spans="1:2">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="7" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="139" ht="67.2" spans="1:2">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="7" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="140" ht="67.2" spans="1:2">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="7" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="141" ht="33.6" spans="1:2">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="7" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="142" ht="50.4" spans="1:2">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="7" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="143" ht="33.6" spans="1:2">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="7" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="7" t="s">
         <v>656</v>
       </c>
     </row>
@@ -7664,466 +7712,466 @@
       </c>
     </row>
     <row r="146" ht="33.6" spans="1:2">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="7" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="7" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="7" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="149" ht="33.6" spans="1:2">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="7" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="B150" s="19" t="s">
+      <c r="B150" s="13" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="151" ht="33.6" spans="1:2">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="7" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="153" ht="33.6" spans="1:2">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="162" ht="50.4" spans="1:2">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="163" ht="33.6" spans="1:2">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="164" ht="33.6" spans="1:2">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="166" ht="50.4" spans="1:2">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="167" ht="33.6" spans="1:2">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="169" ht="33.6" spans="1:2">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="171" ht="33.6" spans="1:2">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="174" ht="50.4" spans="1:2">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="176" ht="33.6" spans="1:2">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="177" ht="50.4" spans="1:2">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="178" ht="33.6" spans="1:2">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="7" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="180" ht="33.6" spans="1:2">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="7" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="7" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="182" ht="33.6" spans="1:2">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="7" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="183" ht="33.6" spans="1:2">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="7" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="184" ht="67.2" spans="1:2">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="7" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="185" ht="84" spans="1:2">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="7" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="7" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="187" ht="50.4" spans="1:2">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="188" ht="33.6" spans="1:2">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="7" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="7" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="190" ht="33.6" spans="1:2">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="7" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="191" ht="33.6" spans="1:2">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="7" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="192" ht="33.6" spans="1:2">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="7" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="193" ht="84" spans="1:2">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="7" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="194" ht="50.4" spans="1:2">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="7" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="195" ht="33.6" spans="1:2">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="196" ht="33.6" spans="1:2">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="7" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="197" ht="33.6" spans="1:2">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="7" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="7" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="200" ht="33.6" spans="1:2">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="7" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="201" ht="84" spans="1:2">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="7" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="202" ht="33.6" spans="1:2">
-      <c r="A202" s="8" t="s">
+      <c r="A202" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="7" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="203" ht="33.6" spans="1:2">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="7" t="s">
         <v>771</v>
       </c>
     </row>
@@ -8136,26 +8184,26 @@
       </c>
     </row>
     <row r="205" ht="33.6" spans="1:2">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="7" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="206" ht="33.6" spans="1:2">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="7" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="7" t="s">
         <v>779</v>
       </c>
     </row>
@@ -8168,590 +8216,586 @@
       </c>
     </row>
     <row r="209" ht="33.6" spans="1:2">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="7" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="210" ht="67.2" spans="1:2">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="7" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="211" ht="67.2" spans="1:2">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="7" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="212" ht="33.6" spans="1:2">
-      <c r="A212" s="8" t="s">
+      <c r="A212" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="7" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="213" ht="84" spans="1:2">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="7" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="214" ht="50.4" spans="1:2">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="7" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="7" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="216" ht="67.2" spans="1:2">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="7" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="217" ht="33.6" spans="1:2">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="7" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="218" ht="50.4" spans="1:2">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="7" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="7" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="220" ht="33.6" spans="1:2">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="7" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="221" ht="33.6" spans="1:2">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="7" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="222" ht="33.6" spans="1:2">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="7" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="7" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="224" ht="33.6" spans="1:2">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="7" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="225" ht="67.2" spans="1:2">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="7" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="226" ht="84" spans="1:2">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="7" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="227" ht="33.6" spans="1:2">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="7" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="228" ht="33.6" spans="1:2">
-      <c r="A228" s="8" t="s">
+      <c r="A228" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="7" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="229" ht="67.2" spans="1:2">
-      <c r="A229" s="8" t="s">
+      <c r="A229" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="7" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="230" ht="50.4" spans="1:2">
-      <c r="A230" s="8" t="s">
+      <c r="A230" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="7" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="231" ht="33.6" spans="1:2">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="7" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="7" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="233" ht="33.6" spans="1:2">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="7" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="8" t="s">
+      <c r="A234" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="7" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="14" t="s">
+      <c r="A235" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="B235" s="14" t="s">
+      <c r="B235" s="7" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="14" t="s">
+      <c r="A236" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="B236" s="14" t="s">
+      <c r="B236" s="7" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="14"/>
-      <c r="B237" s="14"/>
-    </row>
     <row r="238" ht="100.8" spans="1:2">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="7" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="239" ht="151.2" spans="1:2">
-      <c r="A239" s="14" t="s">
+      <c r="A239" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="B239" s="14" t="s">
+      <c r="B239" s="7" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="240" ht="201.6" spans="1:2">
-      <c r="A240" s="14" t="s">
+      <c r="A240" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="7" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="241" ht="84" spans="1:2">
-      <c r="A241" s="14" t="s">
+      <c r="A241" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="7" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="242" ht="84" spans="1:2">
-      <c r="A242" s="14" t="s">
+      <c r="A242" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="B242" s="14" t="s">
+      <c r="B242" s="7" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="243" ht="67.2" spans="1:2">
-      <c r="A243" s="14" t="s">
+      <c r="A243" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="7" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="244" ht="84" spans="1:2">
-      <c r="A244" s="14" t="s">
+      <c r="A244" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="B244" s="14" t="s">
+      <c r="B244" s="7" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="245" ht="84" spans="1:2">
-      <c r="A245" s="14" t="s">
+      <c r="A245" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="7" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="246" ht="100.8" spans="1:2">
-      <c r="A246" s="14" t="s">
+      <c r="A246" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="B246" s="14" t="s">
+      <c r="B246" s="7" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="247" ht="168" spans="1:2">
-      <c r="A247" s="14" t="s">
+      <c r="A247" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="B247" s="14" t="s">
+      <c r="B247" s="7" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="248" ht="117.6" spans="1:2">
-      <c r="A248" s="14" t="s">
+      <c r="A248" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="B248" s="14" t="s">
+      <c r="B248" s="7" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="249" ht="134.4" spans="1:2">
-      <c r="A249" s="14" t="s">
+      <c r="A249" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="7" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="250" ht="117.6" spans="1:2">
-      <c r="A250" s="14" t="s">
+      <c r="A250" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="B250" s="14" t="s">
+      <c r="B250" s="7" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="251" ht="235.2" spans="1:2">
-      <c r="A251" s="14" t="s">
+      <c r="A251" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="B251" s="14" t="s">
+      <c r="B251" s="7" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="252" ht="134.4" spans="1:2">
-      <c r="A252" s="14" t="s">
+      <c r="A252" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="7" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="253" ht="184.8" spans="1:2">
-      <c r="A253" s="14" t="s">
+      <c r="A253" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="B253" s="14" t="s">
+      <c r="B253" s="7" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="254" ht="100.8" spans="1:2">
-      <c r="A254" s="14" t="s">
+      <c r="A254" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="B254" s="14" t="s">
+      <c r="B254" s="7" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="255" ht="100.8" spans="1:2">
-      <c r="A255" s="14" t="s">
+      <c r="A255" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="B255" s="14" t="s">
+      <c r="B255" s="7" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="256" ht="235.2" spans="1:2">
-      <c r="A256" s="14" t="s">
+      <c r="A256" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B256" s="14" t="s">
+      <c r="B256" s="7" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="257" ht="201.6" spans="1:2">
-      <c r="A257" s="14" t="s">
+      <c r="A257" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="B257" s="14" t="s">
+      <c r="B257" s="7" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="258" ht="134.4" spans="1:2">
-      <c r="A258" s="14" t="s">
+      <c r="A258" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="B258" s="14" t="s">
+      <c r="B258" s="7" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="259" ht="100.8" spans="1:2">
-      <c r="A259" s="14" t="s">
+      <c r="A259" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="B259" s="14" t="s">
+      <c r="B259" s="7" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="260" ht="151.2" spans="1:2">
-      <c r="A260" s="14" t="s">
+      <c r="A260" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="B260" s="14" t="s">
+      <c r="B260" s="7" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="261" ht="117.6" spans="1:2">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="B261" s="14" t="s">
+      <c r="B261" s="7" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="262" ht="67.2" spans="1:2">
-      <c r="A262" s="14" t="s">
+      <c r="A262" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="B262" s="14" t="s">
+      <c r="B262" s="7" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="263" ht="151.2" spans="1:2">
-      <c r="A263" s="14" t="s">
+      <c r="A263" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="B263" s="14" t="s">
+      <c r="B263" s="7" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="264" ht="100.8" spans="1:2">
-      <c r="A264" s="14" t="s">
+      <c r="A264" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="B264" s="14" t="s">
+      <c r="B264" s="7" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="265" ht="268.8" spans="1:2">
-      <c r="A265" s="14" t="s">
+      <c r="A265" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="B265" s="14" t="s">
+      <c r="B265" s="7" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="266" ht="134.4" spans="1:2">
-      <c r="A266" s="14" t="s">
+      <c r="A266" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="B266" s="14" t="s">
+      <c r="B266" s="7" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="267" ht="268.8" spans="1:2">
-      <c r="A267" s="14" t="s">
+      <c r="A267" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="B267" s="14" t="s">
+      <c r="B267" s="7" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="268" ht="50.4" spans="1:2">
-      <c r="A268" s="14" t="s">
+      <c r="A268" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="B268" s="14" t="s">
+      <c r="B268" s="7" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="269" ht="117.6" spans="1:2">
-      <c r="A269" s="14" t="s">
+      <c r="A269" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="B269" s="14" t="s">
+      <c r="B269" s="7" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="270" ht="184.8" spans="1:2">
-      <c r="A270" s="14" t="s">
+      <c r="A270" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="7" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="271" ht="100.8" spans="1:2">
-      <c r="A271" s="14" t="s">
+      <c r="A271" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="B271" s="14" t="s">
+      <c r="B271" s="7" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="272" ht="84" spans="1:2">
-      <c r="A272" s="14" t="s">
+      <c r="A272" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="B272" s="14" t="s">
+      <c r="B272" s="7" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="273" ht="134.4" spans="1:2">
-      <c r="A273" s="14" t="s">
+      <c r="A273" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="B273" s="14" t="s">
+      <c r="B273" s="7" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="274" ht="184.8" spans="1:2">
-      <c r="A274" s="14" t="s">
+      <c r="A274" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B274" s="14" t="s">
+      <c r="B274" s="7" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="275" ht="84" spans="1:2">
-      <c r="A275" s="14" t="s">
+      <c r="A275" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B275" s="14" t="s">
+      <c r="B275" s="7" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="276" ht="252" spans="1:2">
-      <c r="A276" s="14" t="s">
+      <c r="A276" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="B276" s="14" t="s">
+      <c r="B276" s="7" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="277" ht="151.2" spans="1:2">
-      <c r="A277" s="14" t="s">
+      <c r="A277" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="B277" s="14" t="s">
+      <c r="B277" s="7" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="278" ht="117.6" spans="1:2">
-      <c r="A278" s="14" t="s">
+      <c r="A278" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="B278" s="14" t="s">
+      <c r="B278" s="7" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="279" ht="67.2" spans="1:2">
-      <c r="A279" s="14" t="s">
+      <c r="A279" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="B279" s="14" t="s">
+      <c r="B279" s="7" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="280" ht="134.4" spans="1:2">
-      <c r="A280" s="14" t="s">
+      <c r="A280" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="B280" s="14" t="s">
+      <c r="B280" s="7" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="281" ht="84" spans="1:2">
-      <c r="A281" s="14" t="s">
+      <c r="A281" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B281" s="14" t="s">
+      <c r="B281" s="7" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="282" ht="369.6" spans="1:2">
-      <c r="A282" s="14" t="s">
+      <c r="A282" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="7" t="s">
         <v>921</v>
       </c>
     </row>
@@ -8767,343 +8811,343 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="47.3333333333333" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="13"/>
+    <col min="1" max="1" width="47.3333333333333" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="117.6" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="2" ht="134.4" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="3" ht="100.8" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="7" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="4" ht="151.2" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="5" ht="168" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="6" ht="218.4" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="7" ht="252" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="8" ht="302.4" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="9" ht="252" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="10" ht="319.2" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="11" ht="218.4" spans="1:1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="12" ht="201.6" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="7" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="13" ht="117.6" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="7" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="14" ht="252" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="7" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="15" ht="252" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="1" ht="134.4" spans="1:1">
-      <c r="A16" s="15" t="s">
+    <row r="16" s="10" customFormat="1" ht="134.4" spans="1:1">
+      <c r="A16" s="10" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="1" ht="218.4" spans="1:1">
-      <c r="A17" s="15" t="s">
+    <row r="17" s="10" customFormat="1" ht="218.4" spans="1:1">
+      <c r="A17" s="10" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="18" s="11" customFormat="1" ht="184.8" spans="1:1">
-      <c r="A18" s="15" t="s">
+    <row r="18" s="10" customFormat="1" ht="184.8" spans="1:1">
+      <c r="A18" s="10" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="19" s="12" customFormat="1" ht="134.4" spans="1:1">
-      <c r="A19" s="16" t="s">
+    <row r="19" s="11" customFormat="1" ht="134.4" spans="1:1">
+      <c r="A19" s="11" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="20" s="12" customFormat="1" ht="151.2" spans="1:1">
-      <c r="A20" s="16" t="s">
+    <row r="20" s="11" customFormat="1" ht="151.2" spans="1:1">
+      <c r="A20" s="11" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="1" ht="117.6" spans="1:1">
-      <c r="A21" s="16" t="s">
+    <row r="21" s="11" customFormat="1" ht="117.6" spans="1:1">
+      <c r="A21" s="11" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="22" s="12" customFormat="1" ht="134.4" spans="1:1">
-      <c r="A22" s="16" t="s">
+    <row r="22" s="11" customFormat="1" ht="134.4" spans="1:1">
+      <c r="A22" s="11" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="10" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="24" ht="285.6" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="10" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="25" ht="134.4" spans="1:1">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="10" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="26" ht="117.6" spans="1:1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="11" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="27" ht="151.2" spans="1:1">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="11" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="28" ht="184.8" spans="1:1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="11" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="29" ht="184.8" spans="1:1">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="11" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="30" ht="168" spans="1:1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="10" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="31" ht="168" spans="1:1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="10" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="32" ht="184.8" spans="1:1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="10" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="33" ht="151.2" spans="1:1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="10" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="34" ht="201.6" spans="1:1">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="35" ht="117.6" spans="1:1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="36" ht="168" spans="1:1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="37" ht="168" spans="1:1">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="38" ht="168" spans="1:1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="39" ht="184.8" spans="1:1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="40" ht="151.2" spans="1:1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="41" ht="117.6" spans="1:1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="42" ht="117.6" spans="1:1">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="43" ht="117.6" spans="1:1">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="44" ht="201.6" spans="1:1">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="45" ht="151.2" spans="1:1">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="11" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="46" ht="117.6" spans="1:1">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="47" ht="184.8" spans="1:1">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="48" ht="151.2" spans="1:1">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="49" ht="201.6" spans="1:1">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="50" ht="252" spans="1:1">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="51" ht="151.2" spans="1:1">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="52" ht="151.2" spans="1:1">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="53" ht="151.2" spans="1:1">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="54" ht="235.2" spans="1:1">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="55" ht="151.2" spans="1:1">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="56" ht="151.2" spans="1:1">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="57" ht="100.8" spans="1:1">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="58" ht="67.2" spans="1:1">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="59" ht="168" spans="1:1">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="60" ht="100.8" spans="1:1">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="61" ht="134.4" spans="1:1">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="11" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="62" ht="117.6" spans="1:1">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="11" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="63" ht="134.4" spans="1:1">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="64" ht="151.2" spans="1:1">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="65" ht="117.6" spans="1:1">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="66" ht="184.8" spans="1:1">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>987</v>
       </c>
     </row>
@@ -9116,12 +9160,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -9165,7 +9209,7 @@
       <c r="A4" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>995</v>
       </c>
     </row>
@@ -9185,10 +9229,10 @@
       </c>
     </row>
     <row r="8" ht="50.4" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -9206,7 +9250,7 @@
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -9224,10 +9268,10 @@
       </c>
     </row>
     <row r="14" ht="67.2" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -9245,10 +9289,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -9256,138 +9300,141 @@
       <c r="A18" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
+    <row r="19" ht="67.2" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>1019</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="27" ht="67.2" spans="1:2">
-      <c r="A27" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="28" ht="33.6" spans="1:2">
-      <c r="A28" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>1032</v>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="33" ht="67.2" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="34" ht="33.6" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>1039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>

--- a/自考/00096-外刊经贸知识选读/00096外刊经贸知识选读.xlsx
+++ b/自考/00096-外刊经贸知识选读/00096外刊经贸知识选读.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="11064" windowHeight="9720" tabRatio="915" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="915" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="课程知识框架" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="1044">
   <si>
     <t>课程知识框架</t>
   </si>
@@ -3805,6 +3805,12 @@
   </si>
   <si>
     <t>激增到，猛增到</t>
+  </si>
+  <si>
+    <t>shoot up</t>
+  </si>
+  <si>
+    <t>猛涨</t>
   </si>
   <si>
     <t>减少</t>
@@ -4536,7 +4542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4563,9 +4569,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4945,7 +4948,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4990,7 +4993,7 @@
       </c>
     </row>
     <row r="10" ht="33.6" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5055,10 +5058,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6039,7 +6042,7 @@
       <c r="A124" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="13" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6552,10 +6555,10 @@
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="38" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7747,7 +7750,7 @@
       <c r="A150" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="12" t="s">
         <v>667</v>
       </c>
     </row>
@@ -8896,258 +8899,258 @@
         <v>936</v>
       </c>
     </row>
-    <row r="16" s="10" customFormat="1" ht="134.4" spans="1:1">
-      <c r="A16" s="10" t="s">
+    <row r="16" s="9" customFormat="1" ht="134.4" spans="1:1">
+      <c r="A16" s="9" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" ht="218.4" spans="1:1">
-      <c r="A17" s="10" t="s">
+    <row r="17" s="9" customFormat="1" ht="218.4" spans="1:1">
+      <c r="A17" s="9" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="1" ht="184.8" spans="1:1">
-      <c r="A18" s="10" t="s">
+    <row r="18" s="9" customFormat="1" ht="184.8" spans="1:1">
+      <c r="A18" s="9" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="19" s="11" customFormat="1" ht="134.4" spans="1:1">
-      <c r="A19" s="11" t="s">
+    <row r="19" s="10" customFormat="1" ht="134.4" spans="1:1">
+      <c r="A19" s="10" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="20" s="11" customFormat="1" ht="151.2" spans="1:1">
-      <c r="A20" s="11" t="s">
+    <row r="20" s="10" customFormat="1" ht="151.2" spans="1:1">
+      <c r="A20" s="10" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="1" ht="117.6" spans="1:1">
-      <c r="A21" s="11" t="s">
+    <row r="21" s="10" customFormat="1" ht="117.6" spans="1:1">
+      <c r="A21" s="10" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="22" s="11" customFormat="1" ht="134.4" spans="1:1">
-      <c r="A22" s="11" t="s">
+    <row r="22" s="10" customFormat="1" ht="134.4" spans="1:1">
+      <c r="A22" s="10" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="24" ht="285.6" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="25" ht="134.4" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="26" ht="117.6" spans="1:1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="27" ht="151.2" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="28" ht="184.8" spans="1:1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="29" ht="184.8" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="30" ht="168" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="31" ht="168" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="32" ht="184.8" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="33" ht="151.2" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="34" ht="201.6" spans="1:1">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="35" ht="117.6" spans="1:1">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="36" ht="168" spans="1:1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="37" ht="168" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="38" ht="168" spans="1:1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="39" ht="184.8" spans="1:1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="40" ht="151.2" spans="1:1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="41" ht="117.6" spans="1:1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="42" ht="117.6" spans="1:1">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="43" ht="117.6" spans="1:1">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="44" ht="201.6" spans="1:1">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="45" ht="151.2" spans="1:1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="46" ht="117.6" spans="1:1">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="47" ht="184.8" spans="1:1">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="48" ht="151.2" spans="1:1">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="49" ht="201.6" spans="1:1">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="50" ht="252" spans="1:1">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="51" ht="151.2" spans="1:1">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="52" ht="151.2" spans="1:1">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="53" ht="151.2" spans="1:1">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="54" ht="235.2" spans="1:1">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="55" ht="151.2" spans="1:1">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="56" ht="151.2" spans="1:1">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="57" ht="100.8" spans="1:1">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="58" ht="67.2" spans="1:1">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="59" ht="168" spans="1:1">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="60" ht="100.8" spans="1:1">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="61" ht="134.4" spans="1:1">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="62" ht="117.6" spans="1:1">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="63" ht="134.4" spans="1:1">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="64" ht="151.2" spans="1:1">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="65" ht="117.6" spans="1:1">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="66" ht="184.8" spans="1:1">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>987</v>
       </c>
     </row>
@@ -9163,9 +9166,9 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -9308,8 +9311,16 @@
       <c r="A19" s="6" t="s">
         <v>1015</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>1016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -9317,32 +9328,32 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="33" ht="67.2" spans="1:2">
@@ -9350,49 +9361,49 @@
         <v>167</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="34" ht="33.6" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -9400,15 +9411,15 @@
         <v>344</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9416,25 +9427,25 @@
         <v>344</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/自考/00096-外刊经贸知识选读/00096外刊经贸知识选读.xlsx
+++ b/自考/00096-外刊经贸知识选读/00096外刊经贸知识选读.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9155" tabRatio="915" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="11340" windowHeight="9060" tabRatio="915" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="课程知识框架" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="1045">
   <si>
     <t>课程知识框架</t>
   </si>
@@ -3742,6 +3742,9 @@
     <t>猛增</t>
   </si>
   <si>
+    <t>upsurge</t>
+  </si>
+  <si>
     <t>rise</t>
   </si>
   <si>
@@ -3891,7 +3894,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3948,34 +3951,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3989,14 +3964,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4036,6 +4003,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4086,7 +4068,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4101,55 +4104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4167,31 +4128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4215,6 +4164,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4227,7 +4188,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4251,7 +4236,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4275,6 +4272,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4292,21 +4295,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4339,6 +4327,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4397,148 +4400,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4588,52 +4591,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -9163,12 +9166,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -9231,16 +9234,16 @@
         <v>998</v>
       </c>
     </row>
-    <row r="8" ht="50.4" spans="1:2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" ht="50.4" spans="1:2">
+      <c r="A9" s="6" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -9249,90 +9252,90 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="14" ht="67.2" spans="1:2">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="B14" s="7" t="s">
+    </row>
+    <row r="15" ht="67.2" spans="1:2">
+      <c r="A15" s="7" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="19" ht="67.2" spans="1:2">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="20" ht="67.2" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
-        <v>1019</v>
-      </c>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -9356,59 +9359,56 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="33" ht="67.2" spans="1:2">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="34" ht="67.2" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="34" ht="33.6" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="35" ht="33.6" spans="1:2">
+      <c r="A35" s="5" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>1035</v>
-      </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>344</v>
+        <v>1035</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1036</v>
@@ -9416,15 +9416,15 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>1037</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>344</v>
+        <v>1038</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>1039</v>
@@ -9432,20 +9432,28 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="B43" s="3" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
         <v>1043</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
